--- a/module1/CaseStudy_FuramaResort/Check List CaseStudy C0220G1.xlsx
+++ b/module1/CaseStudy_FuramaResort/Check List CaseStudy C0220G1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t>Module</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>DONE</t>
-  </si>
-  <si>
-    <t>DOING</t>
   </si>
 </sst>
 </file>
@@ -413,21 +410,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -436,14 +433,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,7 +660,7 @@
   <dimension ref="A1:J882"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -680,47 +677,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="40"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="33"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+      <c r="A3" s="35">
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -746,8 +743,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="3">
         <v>43890</v>
       </c>
@@ -769,8 +766,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="3">
         <v>43892</v>
       </c>
@@ -790,8 +787,8 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="3">
         <v>43893</v>
       </c>
@@ -811,8 +808,8 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="3">
         <v>43895</v>
       </c>
@@ -834,8 +831,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="3">
         <v>43897</v>
       </c>
@@ -855,8 +852,8 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="3">
         <v>43899</v>
       </c>
@@ -876,8 +873,8 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="3">
         <v>43901</v>
       </c>
@@ -896,8 +893,8 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="3">
         <v>43903</v>
       </c>
@@ -917,8 +914,8 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="3">
         <v>43905</v>
       </c>
@@ -938,8 +935,8 @@
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="3">
         <v>43907</v>
       </c>
@@ -959,8 +956,8 @@
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="3">
         <v>43909</v>
       </c>
@@ -980,8 +977,8 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="3">
         <v>43912</v>
       </c>
@@ -1001,8 +998,8 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="3">
         <v>43915</v>
       </c>
@@ -1022,7 +1019,7 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+      <c r="A17" s="37">
         <v>2</v>
       </c>
       <c r="B17" s="39" t="s">
@@ -1048,8 +1045,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="18">
         <v>43890</v>
       </c>
@@ -1071,8 +1068,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="18">
         <v>43892</v>
       </c>
@@ -1092,8 +1089,8 @@
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="18">
         <v>43893</v>
       </c>
@@ -1113,8 +1110,8 @@
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="18">
         <v>43895</v>
       </c>
@@ -1134,8 +1131,8 @@
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="18">
         <v>43897</v>
       </c>
@@ -1155,8 +1152,8 @@
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="18">
         <v>43899</v>
       </c>
@@ -1176,8 +1173,8 @@
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="18">
         <v>43901</v>
       </c>
@@ -1197,8 +1194,8 @@
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="18">
         <v>43903</v>
       </c>
@@ -1218,8 +1215,8 @@
       <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="18">
         <v>43905</v>
       </c>
@@ -1239,8 +1236,8 @@
       <c r="J26" s="12"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="18">
         <v>43907</v>
       </c>
@@ -1260,8 +1257,8 @@
       <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="18">
         <v>43909</v>
       </c>
@@ -1281,8 +1278,8 @@
       <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="18">
         <v>43912</v>
       </c>
@@ -1302,8 +1299,8 @@
       <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="18">
         <v>43915</v>
       </c>
@@ -1323,10 +1320,10 @@
       <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37">
+      <c r="A31" s="35">
         <v>3</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="3">
@@ -1347,8 +1344,8 @@
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="3">
         <v>43890</v>
       </c>
@@ -1368,8 +1365,8 @@
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="3">
         <v>43892</v>
       </c>
@@ -1391,8 +1388,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="3">
         <v>43893</v>
       </c>
@@ -1412,8 +1409,8 @@
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="3">
         <v>43895</v>
       </c>
@@ -1433,8 +1430,8 @@
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="3">
         <v>43897</v>
       </c>
@@ -1454,8 +1451,8 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="3">
         <v>43899</v>
       </c>
@@ -1475,8 +1472,8 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="3">
         <v>43901</v>
       </c>
@@ -1496,8 +1493,8 @@
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="3">
         <v>43903</v>
       </c>
@@ -1517,8 +1514,8 @@
       <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="3">
         <v>43905</v>
       </c>
@@ -1538,8 +1535,8 @@
       <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="3">
         <v>43907</v>
       </c>
@@ -1559,8 +1556,8 @@
       <c r="J41" s="12"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="3">
         <v>43909</v>
       </c>
@@ -1580,8 +1577,8 @@
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="3">
         <v>43912</v>
       </c>
@@ -1601,8 +1598,8 @@
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="3">
         <v>43915</v>
       </c>
@@ -1622,10 +1619,10 @@
       <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34">
+      <c r="A45" s="37">
         <v>4</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="18">
@@ -1648,8 +1645,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="18">
         <v>43890</v>
       </c>
@@ -1669,8 +1666,8 @@
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="18">
         <v>43892</v>
       </c>
@@ -1690,8 +1687,8 @@
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="18">
         <v>43893</v>
       </c>
@@ -1711,8 +1708,8 @@
       <c r="J48" s="8"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="18">
         <v>43895</v>
       </c>
@@ -1732,8 +1729,8 @@
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="18">
         <v>43897</v>
       </c>
@@ -1753,8 +1750,8 @@
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="18">
         <v>43899</v>
       </c>
@@ -1774,8 +1771,8 @@
       <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="18">
         <v>43901</v>
       </c>
@@ -1795,8 +1792,8 @@
       <c r="J52" s="12"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="18">
         <v>43903</v>
       </c>
@@ -1816,8 +1813,8 @@
       <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="18">
         <v>43905</v>
       </c>
@@ -1837,8 +1834,8 @@
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="18">
         <v>43907</v>
       </c>
@@ -1858,8 +1855,8 @@
       <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="18">
         <v>43909</v>
       </c>
@@ -1879,8 +1876,8 @@
       <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="18">
         <v>43912</v>
       </c>
@@ -1900,8 +1897,8 @@
       <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="18">
         <v>43915</v>
       </c>
@@ -1921,10 +1918,10 @@
       <c r="J58" s="12"/>
     </row>
     <row r="59" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="37">
+      <c r="A59" s="35">
         <v>5</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="40" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="3">
@@ -1947,8 +1944,8 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="3">
         <v>43890</v>
       </c>
@@ -1970,8 +1967,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="3">
         <v>43892</v>
       </c>
@@ -1991,8 +1988,8 @@
       <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="3">
         <v>43893</v>
       </c>
@@ -2012,8 +2009,8 @@
       <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="3">
         <v>43895</v>
       </c>
@@ -2033,8 +2030,8 @@
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="3">
         <v>43897</v>
       </c>
@@ -2054,8 +2051,8 @@
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="3">
         <v>43899</v>
       </c>
@@ -2075,8 +2072,8 @@
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
-      <c r="B66" s="32"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="3">
         <v>43901</v>
       </c>
@@ -2096,8 +2093,8 @@
       <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="3">
         <v>43903</v>
       </c>
@@ -2117,8 +2114,8 @@
       <c r="J67" s="12"/>
     </row>
     <row r="68" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="32"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="3">
         <v>43905</v>
       </c>
@@ -2138,8 +2135,8 @@
       <c r="J68" s="12"/>
     </row>
     <row r="69" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="3">
         <v>43907</v>
       </c>
@@ -2159,8 +2156,8 @@
       <c r="J69" s="12"/>
     </row>
     <row r="70" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="3">
         <v>43909</v>
       </c>
@@ -2180,8 +2177,8 @@
       <c r="J70" s="12"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="3">
         <v>43912</v>
       </c>
@@ -2201,8 +2198,8 @@
       <c r="J71" s="12"/>
     </row>
     <row r="72" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="33"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="3">
         <v>43915</v>
       </c>
@@ -2222,10 +2219,10 @@
       <c r="J72" s="12"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="34">
+      <c r="A73" s="37">
         <v>6</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C73" s="18">
@@ -2248,8 +2245,8 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
-      <c r="B74" s="32"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="18">
         <v>43890</v>
       </c>
@@ -2271,8 +2268,8 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
-      <c r="B75" s="32"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="18">
         <v>43892</v>
       </c>
@@ -2292,8 +2289,8 @@
       <c r="J75" s="8"/>
     </row>
     <row r="76" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="18">
         <v>43893</v>
       </c>
@@ -2313,8 +2310,8 @@
       <c r="J76" s="8"/>
     </row>
     <row r="77" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="32"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="18">
         <v>43895</v>
       </c>
@@ -2334,8 +2331,8 @@
       <c r="J77" s="8"/>
     </row>
     <row r="78" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
-      <c r="B78" s="32"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="18">
         <v>43897</v>
       </c>
@@ -2355,8 +2352,8 @@
       <c r="J78" s="8"/>
     </row>
     <row r="79" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="18">
         <v>43899</v>
       </c>
@@ -2376,8 +2373,8 @@
       <c r="J79" s="12"/>
     </row>
     <row r="80" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="18">
         <v>43901</v>
       </c>
@@ -2397,8 +2394,8 @@
       <c r="J80" s="12"/>
     </row>
     <row r="81" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="32"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="18">
         <v>43903</v>
       </c>
@@ -2418,8 +2415,8 @@
       <c r="J81" s="12"/>
     </row>
     <row r="82" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="32"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="18">
         <v>43905</v>
       </c>
@@ -2439,8 +2436,8 @@
       <c r="J82" s="12"/>
     </row>
     <row r="83" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
-      <c r="B83" s="32"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="18">
         <v>43907</v>
       </c>
@@ -2460,8 +2457,8 @@
       <c r="J83" s="12"/>
     </row>
     <row r="84" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
-      <c r="B84" s="32"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="18">
         <v>43909</v>
       </c>
@@ -2481,8 +2478,8 @@
       <c r="J84" s="12"/>
     </row>
     <row r="85" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
-      <c r="B85" s="32"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="18">
         <v>43912</v>
       </c>
@@ -2502,8 +2499,8 @@
       <c r="J85" s="12"/>
     </row>
     <row r="86" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="32"/>
-      <c r="B86" s="33"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="18">
         <v>43915</v>
       </c>
@@ -2523,10 +2520,10 @@
       <c r="J86" s="12"/>
     </row>
     <row r="87" spans="1:10" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="37">
+      <c r="A87" s="35">
         <v>7</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C87" s="3">
@@ -2547,8 +2544,8 @@
       <c r="J87" s="8"/>
     </row>
     <row r="88" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="3">
         <v>43890</v>
       </c>
@@ -2568,8 +2565,8 @@
       <c r="J88" s="8"/>
     </row>
     <row r="89" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="32"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="3">
         <v>43892</v>
       </c>
@@ -2589,8 +2586,8 @@
       <c r="J89" s="8"/>
     </row>
     <row r="90" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="32"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="3">
         <v>43893</v>
       </c>
@@ -2610,8 +2607,8 @@
       <c r="J90" s="8"/>
     </row>
     <row r="91" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="32"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="3">
         <v>43895</v>
       </c>
@@ -2631,8 +2628,8 @@
       <c r="J91" s="8"/>
     </row>
     <row r="92" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="32"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="3">
         <v>43897</v>
       </c>
@@ -2652,8 +2649,8 @@
       <c r="J92" s="8"/>
     </row>
     <row r="93" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
-      <c r="B93" s="32"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="3">
         <v>43899</v>
       </c>
@@ -2673,8 +2670,8 @@
       <c r="J93" s="8"/>
     </row>
     <row r="94" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
-      <c r="B94" s="32"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="3">
         <v>43901</v>
       </c>
@@ -2694,8 +2691,8 @@
       <c r="J94" s="8"/>
     </row>
     <row r="95" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
-      <c r="B95" s="32"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="3">
         <v>43903</v>
       </c>
@@ -2715,8 +2712,8 @@
       <c r="J95" s="12"/>
     </row>
     <row r="96" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="32"/>
-      <c r="B96" s="32"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="3">
         <v>43905</v>
       </c>
@@ -2736,8 +2733,8 @@
       <c r="J96" s="12"/>
     </row>
     <row r="97" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
-      <c r="B97" s="32"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="3">
         <v>43907</v>
       </c>
@@ -2757,8 +2754,8 @@
       <c r="J97" s="12"/>
     </row>
     <row r="98" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="32"/>
-      <c r="B98" s="32"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="3">
         <v>43909</v>
       </c>
@@ -2778,8 +2775,8 @@
       <c r="J98" s="12"/>
     </row>
     <row r="99" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="32"/>
-      <c r="B99" s="32"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="3">
         <v>43912</v>
       </c>
@@ -2799,8 +2796,8 @@
       <c r="J99" s="12"/>
     </row>
     <row r="100" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="32"/>
-      <c r="B100" s="33"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="32"/>
       <c r="C100" s="3">
         <v>43915</v>
       </c>
@@ -2820,10 +2817,10 @@
       <c r="J100" s="12"/>
     </row>
     <row r="101" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="34">
+      <c r="A101" s="37">
         <v>8</v>
       </c>
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C101" s="18">
@@ -2848,8 +2845,8 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="32"/>
-      <c r="B102" s="32"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="18">
         <v>43890</v>
       </c>
@@ -2873,8 +2870,8 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="32"/>
-      <c r="B103" s="32"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
       <c r="C103" s="18">
         <v>43892</v>
       </c>
@@ -2890,7 +2887,7 @@
       </c>
       <c r="G103" s="19"/>
       <c r="H103" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="8" t="s">
@@ -2898,8 +2895,8 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="32"/>
-      <c r="B104" s="32"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="18">
         <v>43893</v>
       </c>
@@ -2914,15 +2911,17 @@
         <v>2</v>
       </c>
       <c r="G104" s="19"/>
-      <c r="H104" s="6"/>
+      <c r="H104" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="I104" s="6"/>
       <c r="J104" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="32"/>
-      <c r="B105" s="32"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="18">
         <v>43895</v>
       </c>
@@ -2944,8 +2943,8 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
-      <c r="B106" s="32"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="18">
         <v>43897</v>
       </c>
@@ -2967,8 +2966,8 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="32"/>
-      <c r="B107" s="32"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="18">
         <v>43899</v>
       </c>
@@ -2990,8 +2989,8 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
-      <c r="B108" s="32"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="36"/>
       <c r="C108" s="18">
         <v>43901</v>
       </c>
@@ -3013,8 +3012,8 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="32"/>
-      <c r="B109" s="32"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="18">
         <v>43903</v>
       </c>
@@ -3036,8 +3035,8 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
-      <c r="B110" s="32"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="18">
         <v>43905</v>
       </c>
@@ -3059,8 +3058,8 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="32"/>
-      <c r="B111" s="32"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="36"/>
       <c r="C111" s="18">
         <v>43907</v>
       </c>
@@ -3082,8 +3081,8 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
-      <c r="B112" s="32"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="36"/>
       <c r="C112" s="18">
         <v>43909</v>
       </c>
@@ -3105,8 +3104,8 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="32"/>
-      <c r="B113" s="32"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="18">
         <v>43912</v>
       </c>
@@ -3128,8 +3127,8 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="32"/>
-      <c r="B114" s="33"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="32"/>
       <c r="C114" s="18">
         <v>43915</v>
       </c>
@@ -3151,10 +3150,10 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="37">
+      <c r="A115" s="35">
         <v>9</v>
       </c>
-      <c r="B115" s="36" t="s">
+      <c r="B115" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C115" s="3">
@@ -3177,8 +3176,8 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="32"/>
-      <c r="B116" s="32"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="3">
         <v>43890</v>
       </c>
@@ -3200,8 +3199,8 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="32"/>
-      <c r="B117" s="32"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="3">
         <v>43892</v>
       </c>
@@ -3223,8 +3222,8 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="32"/>
-      <c r="B118" s="32"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="3">
         <v>43893</v>
       </c>
@@ -3246,8 +3245,8 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="32"/>
-      <c r="B119" s="32"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="36"/>
       <c r="C119" s="3">
         <v>43895</v>
       </c>
@@ -3267,8 +3266,8 @@
       <c r="J119" s="8"/>
     </row>
     <row r="120" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="32"/>
-      <c r="B120" s="32"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="36"/>
       <c r="C120" s="3">
         <v>43897</v>
       </c>
@@ -3288,8 +3287,8 @@
       <c r="J120" s="8"/>
     </row>
     <row r="121" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="32"/>
-      <c r="B121" s="32"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="36"/>
       <c r="C121" s="3">
         <v>43899</v>
       </c>
@@ -3309,8 +3308,8 @@
       <c r="J121" s="8"/>
     </row>
     <row r="122" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="32"/>
-      <c r="B122" s="32"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="36"/>
       <c r="C122" s="3">
         <v>43901</v>
       </c>
@@ -3330,8 +3329,8 @@
       <c r="J122" s="8"/>
     </row>
     <row r="123" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="32"/>
-      <c r="B123" s="32"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="36"/>
       <c r="C123" s="3">
         <v>43903</v>
       </c>
@@ -3351,8 +3350,8 @@
       <c r="J123" s="12"/>
     </row>
     <row r="124" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="32"/>
-      <c r="B124" s="32"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="36"/>
       <c r="C124" s="3">
         <v>43905</v>
       </c>
@@ -3372,8 +3371,8 @@
       <c r="J124" s="12"/>
     </row>
     <row r="125" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="32"/>
-      <c r="B125" s="32"/>
+      <c r="A125" s="36"/>
+      <c r="B125" s="36"/>
       <c r="C125" s="3">
         <v>43907</v>
       </c>
@@ -3393,8 +3392,8 @@
       <c r="J125" s="12"/>
     </row>
     <row r="126" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="32"/>
-      <c r="B126" s="32"/>
+      <c r="A126" s="36"/>
+      <c r="B126" s="36"/>
       <c r="C126" s="3">
         <v>43909</v>
       </c>
@@ -3414,8 +3413,8 @@
       <c r="J126" s="12"/>
     </row>
     <row r="127" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="32"/>
-      <c r="B127" s="32"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="36"/>
       <c r="C127" s="3">
         <v>43912</v>
       </c>
@@ -3435,8 +3434,8 @@
       <c r="J127" s="12"/>
     </row>
     <row r="128" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="32"/>
-      <c r="B128" s="33"/>
+      <c r="A128" s="36"/>
+      <c r="B128" s="32"/>
       <c r="C128" s="3">
         <v>43915</v>
       </c>
@@ -3456,10 +3455,10 @@
       <c r="J128" s="12"/>
     </row>
     <row r="129" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="34">
+      <c r="A129" s="37">
         <v>10</v>
       </c>
-      <c r="B129" s="35" t="s">
+      <c r="B129" s="41" t="s">
         <v>26</v>
       </c>
       <c r="C129" s="18">
@@ -3482,8 +3481,8 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="32"/>
-      <c r="B130" s="32"/>
+      <c r="A130" s="36"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="18">
         <v>43890</v>
       </c>
@@ -3505,8 +3504,8 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="32"/>
-      <c r="B131" s="32"/>
+      <c r="A131" s="36"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="18">
         <v>43892</v>
       </c>
@@ -3528,8 +3527,8 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="32"/>
-      <c r="B132" s="32"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="36"/>
       <c r="C132" s="18">
         <v>43893</v>
       </c>
@@ -3551,8 +3550,8 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="32"/>
-      <c r="B133" s="32"/>
+      <c r="A133" s="36"/>
+      <c r="B133" s="36"/>
       <c r="C133" s="18">
         <v>43895</v>
       </c>
@@ -3572,8 +3571,8 @@
       <c r="J133" s="8"/>
     </row>
     <row r="134" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="32"/>
-      <c r="B134" s="32"/>
+      <c r="A134" s="36"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="18">
         <v>43897</v>
       </c>
@@ -3593,8 +3592,8 @@
       <c r="J134" s="8"/>
     </row>
     <row r="135" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="32"/>
-      <c r="B135" s="32"/>
+      <c r="A135" s="36"/>
+      <c r="B135" s="36"/>
       <c r="C135" s="18">
         <v>43899</v>
       </c>
@@ -3614,8 +3613,8 @@
       <c r="J135" s="12"/>
     </row>
     <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="32"/>
-      <c r="B136" s="32"/>
+      <c r="A136" s="36"/>
+      <c r="B136" s="36"/>
       <c r="C136" s="18">
         <v>43901</v>
       </c>
@@ -3635,8 +3634,8 @@
       <c r="J136" s="12"/>
     </row>
     <row r="137" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="32"/>
-      <c r="B137" s="32"/>
+      <c r="A137" s="36"/>
+      <c r="B137" s="36"/>
       <c r="C137" s="18">
         <v>43903</v>
       </c>
@@ -3656,8 +3655,8 @@
       <c r="J137" s="12"/>
     </row>
     <row r="138" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="32"/>
-      <c r="B138" s="32"/>
+      <c r="A138" s="36"/>
+      <c r="B138" s="36"/>
       <c r="C138" s="18">
         <v>43905</v>
       </c>
@@ -3677,8 +3676,8 @@
       <c r="J138" s="12"/>
     </row>
     <row r="139" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="32"/>
-      <c r="B139" s="32"/>
+      <c r="A139" s="36"/>
+      <c r="B139" s="36"/>
       <c r="C139" s="18">
         <v>43907</v>
       </c>
@@ -3698,8 +3697,8 @@
       <c r="J139" s="12"/>
     </row>
     <row r="140" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="32"/>
-      <c r="B140" s="32"/>
+      <c r="A140" s="36"/>
+      <c r="B140" s="36"/>
       <c r="C140" s="18">
         <v>43909</v>
       </c>
@@ -3719,8 +3718,8 @@
       <c r="J140" s="12"/>
     </row>
     <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="32"/>
-      <c r="B141" s="32"/>
+      <c r="A141" s="36"/>
+      <c r="B141" s="36"/>
       <c r="C141" s="18">
         <v>43912</v>
       </c>
@@ -3740,8 +3739,8 @@
       <c r="J141" s="12"/>
     </row>
     <row r="142" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="32"/>
-      <c r="B142" s="33"/>
+      <c r="A142" s="36"/>
+      <c r="B142" s="32"/>
       <c r="C142" s="18">
         <v>43915</v>
       </c>
@@ -3761,10 +3760,10 @@
       <c r="J142" s="12"/>
     </row>
     <row r="143" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="37">
+      <c r="A143" s="35">
         <v>11</v>
       </c>
-      <c r="B143" s="36" t="s">
+      <c r="B143" s="40" t="s">
         <v>30</v>
       </c>
       <c r="C143" s="3">
@@ -3787,8 +3786,8 @@
       </c>
     </row>
     <row r="144" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="32"/>
-      <c r="B144" s="32"/>
+      <c r="A144" s="36"/>
+      <c r="B144" s="36"/>
       <c r="C144" s="3">
         <v>43890</v>
       </c>
@@ -3808,8 +3807,8 @@
       <c r="J144" s="8"/>
     </row>
     <row r="145" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="32"/>
-      <c r="B145" s="32"/>
+      <c r="A145" s="36"/>
+      <c r="B145" s="36"/>
       <c r="C145" s="3">
         <v>43892</v>
       </c>
@@ -3829,8 +3828,8 @@
       <c r="J145" s="8"/>
     </row>
     <row r="146" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="32"/>
-      <c r="B146" s="32"/>
+      <c r="A146" s="36"/>
+      <c r="B146" s="36"/>
       <c r="C146" s="3">
         <v>43893</v>
       </c>
@@ -3850,8 +3849,8 @@
       <c r="J146" s="8"/>
     </row>
     <row r="147" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="32"/>
-      <c r="B147" s="32"/>
+      <c r="A147" s="36"/>
+      <c r="B147" s="36"/>
       <c r="C147" s="3">
         <v>43895</v>
       </c>
@@ -3871,8 +3870,8 @@
       <c r="J147" s="8"/>
     </row>
     <row r="148" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="32"/>
-      <c r="B148" s="32"/>
+      <c r="A148" s="36"/>
+      <c r="B148" s="36"/>
       <c r="C148" s="3">
         <v>43897</v>
       </c>
@@ -3892,8 +3891,8 @@
       <c r="J148" s="8"/>
     </row>
     <row r="149" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="32"/>
-      <c r="B149" s="32"/>
+      <c r="A149" s="36"/>
+      <c r="B149" s="36"/>
       <c r="C149" s="3">
         <v>43899</v>
       </c>
@@ -3913,8 +3912,8 @@
       <c r="J149" s="8"/>
     </row>
     <row r="150" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="32"/>
-      <c r="B150" s="32"/>
+      <c r="A150" s="36"/>
+      <c r="B150" s="36"/>
       <c r="C150" s="3">
         <v>43901</v>
       </c>
@@ -3934,8 +3933,8 @@
       <c r="J150" s="8"/>
     </row>
     <row r="151" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="32"/>
-      <c r="B151" s="32"/>
+      <c r="A151" s="36"/>
+      <c r="B151" s="36"/>
       <c r="C151" s="3">
         <v>43903</v>
       </c>
@@ -3955,8 +3954,8 @@
       <c r="J151" s="12"/>
     </row>
     <row r="152" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="32"/>
-      <c r="B152" s="32"/>
+      <c r="A152" s="36"/>
+      <c r="B152" s="36"/>
       <c r="C152" s="3">
         <v>43905</v>
       </c>
@@ -3976,8 +3975,8 @@
       <c r="J152" s="12"/>
     </row>
     <row r="153" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="32"/>
-      <c r="B153" s="32"/>
+      <c r="A153" s="36"/>
+      <c r="B153" s="36"/>
       <c r="C153" s="3">
         <v>43907</v>
       </c>
@@ -3997,8 +3996,8 @@
       <c r="J153" s="12"/>
     </row>
     <row r="154" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="32"/>
-      <c r="B154" s="32"/>
+      <c r="A154" s="36"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="3">
         <v>43909</v>
       </c>
@@ -4018,8 +4017,8 @@
       <c r="J154" s="12"/>
     </row>
     <row r="155" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="32"/>
-      <c r="B155" s="32"/>
+      <c r="A155" s="36"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="3">
         <v>43912</v>
       </c>
@@ -4039,8 +4038,8 @@
       <c r="J155" s="12"/>
     </row>
     <row r="156" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="32"/>
-      <c r="B156" s="33"/>
+      <c r="A156" s="36"/>
+      <c r="B156" s="32"/>
       <c r="C156" s="3">
         <v>43915</v>
       </c>
@@ -4060,10 +4059,10 @@
       <c r="J156" s="12"/>
     </row>
     <row r="157" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="34">
+      <c r="A157" s="37">
         <v>12</v>
       </c>
-      <c r="B157" s="35" t="s">
+      <c r="B157" s="41" t="s">
         <v>31</v>
       </c>
       <c r="C157" s="18">
@@ -4086,8 +4085,8 @@
       </c>
     </row>
     <row r="158" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="32"/>
-      <c r="B158" s="32"/>
+      <c r="A158" s="36"/>
+      <c r="B158" s="36"/>
       <c r="C158" s="18">
         <v>43890</v>
       </c>
@@ -4109,8 +4108,8 @@
       </c>
     </row>
     <row r="159" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="32"/>
-      <c r="B159" s="32"/>
+      <c r="A159" s="36"/>
+      <c r="B159" s="36"/>
       <c r="C159" s="18">
         <v>43892</v>
       </c>
@@ -4130,8 +4129,8 @@
       <c r="J159" s="8"/>
     </row>
     <row r="160" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="32"/>
-      <c r="B160" s="32"/>
+      <c r="A160" s="36"/>
+      <c r="B160" s="36"/>
       <c r="C160" s="18">
         <v>43893</v>
       </c>
@@ -4151,8 +4150,8 @@
       <c r="J160" s="8"/>
     </row>
     <row r="161" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="32"/>
-      <c r="B161" s="32"/>
+      <c r="A161" s="36"/>
+      <c r="B161" s="36"/>
       <c r="C161" s="18">
         <v>43895</v>
       </c>
@@ -4172,8 +4171,8 @@
       <c r="J161" s="8"/>
     </row>
     <row r="162" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="32"/>
-      <c r="B162" s="32"/>
+      <c r="A162" s="36"/>
+      <c r="B162" s="36"/>
       <c r="C162" s="18">
         <v>43897</v>
       </c>
@@ -4193,8 +4192,8 @@
       <c r="J162" s="8"/>
     </row>
     <row r="163" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="32"/>
-      <c r="B163" s="32"/>
+      <c r="A163" s="36"/>
+      <c r="B163" s="36"/>
       <c r="C163" s="18">
         <v>43899</v>
       </c>
@@ -4214,8 +4213,8 @@
       <c r="J163" s="12"/>
     </row>
     <row r="164" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="32"/>
-      <c r="B164" s="32"/>
+      <c r="A164" s="36"/>
+      <c r="B164" s="36"/>
       <c r="C164" s="18">
         <v>43901</v>
       </c>
@@ -4235,8 +4234,8 @@
       <c r="J164" s="12"/>
     </row>
     <row r="165" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="32"/>
-      <c r="B165" s="32"/>
+      <c r="A165" s="36"/>
+      <c r="B165" s="36"/>
       <c r="C165" s="18">
         <v>43903</v>
       </c>
@@ -4256,8 +4255,8 @@
       <c r="J165" s="12"/>
     </row>
     <row r="166" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="32"/>
-      <c r="B166" s="32"/>
+      <c r="A166" s="36"/>
+      <c r="B166" s="36"/>
       <c r="C166" s="18">
         <v>43905</v>
       </c>
@@ -4277,8 +4276,8 @@
       <c r="J166" s="12"/>
     </row>
     <row r="167" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="32"/>
-      <c r="B167" s="32"/>
+      <c r="A167" s="36"/>
+      <c r="B167" s="36"/>
       <c r="C167" s="18">
         <v>43907</v>
       </c>
@@ -4298,8 +4297,8 @@
       <c r="J167" s="12"/>
     </row>
     <row r="168" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="32"/>
-      <c r="B168" s="32"/>
+      <c r="A168" s="36"/>
+      <c r="B168" s="36"/>
       <c r="C168" s="18">
         <v>43909</v>
       </c>
@@ -4319,8 +4318,8 @@
       <c r="J168" s="12"/>
     </row>
     <row r="169" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="32"/>
-      <c r="B169" s="32"/>
+      <c r="A169" s="36"/>
+      <c r="B169" s="36"/>
       <c r="C169" s="18">
         <v>43912</v>
       </c>
@@ -4340,8 +4339,8 @@
       <c r="J169" s="12"/>
     </row>
     <row r="170" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="32"/>
-      <c r="B170" s="33"/>
+      <c r="A170" s="36"/>
+      <c r="B170" s="32"/>
       <c r="C170" s="18">
         <v>43915</v>
       </c>
@@ -4361,10 +4360,10 @@
       <c r="J170" s="12"/>
     </row>
     <row r="171" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="37">
+      <c r="A171" s="35">
         <v>13</v>
       </c>
-      <c r="B171" s="36" t="s">
+      <c r="B171" s="40" t="s">
         <v>32</v>
       </c>
       <c r="C171" s="3">
@@ -4387,8 +4386,8 @@
       </c>
     </row>
     <row r="172" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="32"/>
-      <c r="B172" s="32"/>
+      <c r="A172" s="36"/>
+      <c r="B172" s="36"/>
       <c r="C172" s="3">
         <v>43890</v>
       </c>
@@ -4410,8 +4409,8 @@
       </c>
     </row>
     <row r="173" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="32"/>
-      <c r="B173" s="32"/>
+      <c r="A173" s="36"/>
+      <c r="B173" s="36"/>
       <c r="C173" s="3">
         <v>43892</v>
       </c>
@@ -4433,8 +4432,8 @@
       </c>
     </row>
     <row r="174" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="32"/>
-      <c r="B174" s="32"/>
+      <c r="A174" s="36"/>
+      <c r="B174" s="36"/>
       <c r="C174" s="3">
         <v>43893</v>
       </c>
@@ -4454,8 +4453,8 @@
       <c r="J174" s="8"/>
     </row>
     <row r="175" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="32"/>
-      <c r="B175" s="32"/>
+      <c r="A175" s="36"/>
+      <c r="B175" s="36"/>
       <c r="C175" s="3">
         <v>43895</v>
       </c>
@@ -4475,8 +4474,8 @@
       <c r="J175" s="8"/>
     </row>
     <row r="176" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="32"/>
-      <c r="B176" s="32"/>
+      <c r="A176" s="36"/>
+      <c r="B176" s="36"/>
       <c r="C176" s="3">
         <v>43897</v>
       </c>
@@ -4496,8 +4495,8 @@
       <c r="J176" s="8"/>
     </row>
     <row r="177" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="32"/>
-      <c r="B177" s="32"/>
+      <c r="A177" s="36"/>
+      <c r="B177" s="36"/>
       <c r="C177" s="3">
         <v>43899</v>
       </c>
@@ -4517,8 +4516,8 @@
       <c r="J177" s="8"/>
     </row>
     <row r="178" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="32"/>
-      <c r="B178" s="32"/>
+      <c r="A178" s="36"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="3">
         <v>43901</v>
       </c>
@@ -4538,8 +4537,8 @@
       <c r="J178" s="8"/>
     </row>
     <row r="179" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="32"/>
-      <c r="B179" s="32"/>
+      <c r="A179" s="36"/>
+      <c r="B179" s="36"/>
       <c r="C179" s="3">
         <v>43903</v>
       </c>
@@ -4559,8 +4558,8 @@
       <c r="J179" s="12"/>
     </row>
     <row r="180" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="32"/>
-      <c r="B180" s="32"/>
+      <c r="A180" s="36"/>
+      <c r="B180" s="36"/>
       <c r="C180" s="3">
         <v>43905</v>
       </c>
@@ -4580,8 +4579,8 @@
       <c r="J180" s="12"/>
     </row>
     <row r="181" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="32"/>
-      <c r="B181" s="32"/>
+      <c r="A181" s="36"/>
+      <c r="B181" s="36"/>
       <c r="C181" s="3">
         <v>43907</v>
       </c>
@@ -4601,8 +4600,8 @@
       <c r="J181" s="12"/>
     </row>
     <row r="182" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="32"/>
-      <c r="B182" s="32"/>
+      <c r="A182" s="36"/>
+      <c r="B182" s="36"/>
       <c r="C182" s="3">
         <v>43909</v>
       </c>
@@ -4622,8 +4621,8 @@
       <c r="J182" s="12"/>
     </row>
     <row r="183" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="32"/>
-      <c r="B183" s="32"/>
+      <c r="A183" s="36"/>
+      <c r="B183" s="36"/>
       <c r="C183" s="3">
         <v>43912</v>
       </c>
@@ -4643,8 +4642,8 @@
       <c r="J183" s="12"/>
     </row>
     <row r="184" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="33"/>
-      <c r="B184" s="33"/>
+      <c r="A184" s="32"/>
+      <c r="B184" s="32"/>
       <c r="C184" s="3">
         <v>43915</v>
       </c>
@@ -4664,10 +4663,10 @@
       <c r="J184" s="12"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="34">
+      <c r="A185" s="37">
         <v>14</v>
       </c>
-      <c r="B185" s="35" t="s">
+      <c r="B185" s="41" t="s">
         <v>34</v>
       </c>
       <c r="C185" s="18">
@@ -4687,8 +4686,8 @@
       <c r="I185" s="7"/>
     </row>
     <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="32"/>
-      <c r="B186" s="32"/>
+      <c r="A186" s="36"/>
+      <c r="B186" s="36"/>
       <c r="C186" s="18">
         <v>43890</v>
       </c>
@@ -4707,8 +4706,8 @@
       <c r="I186" s="6"/>
     </row>
     <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="32"/>
-      <c r="B187" s="32"/>
+      <c r="A187" s="36"/>
+      <c r="B187" s="36"/>
       <c r="C187" s="18">
         <v>43892</v>
       </c>
@@ -4727,8 +4726,8 @@
       <c r="I187" s="6"/>
     </row>
     <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="32"/>
-      <c r="B188" s="32"/>
+      <c r="A188" s="36"/>
+      <c r="B188" s="36"/>
       <c r="C188" s="18">
         <v>43893</v>
       </c>
@@ -4747,8 +4746,8 @@
       <c r="I188" s="6"/>
     </row>
     <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="32"/>
-      <c r="B189" s="32"/>
+      <c r="A189" s="36"/>
+      <c r="B189" s="36"/>
       <c r="C189" s="18">
         <v>43895</v>
       </c>
@@ -4767,8 +4766,8 @@
       <c r="I189" s="6"/>
     </row>
     <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="32"/>
-      <c r="B190" s="32"/>
+      <c r="A190" s="36"/>
+      <c r="B190" s="36"/>
       <c r="C190" s="18">
         <v>43897</v>
       </c>
@@ -4787,8 +4786,8 @@
       <c r="I190" s="6"/>
     </row>
     <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="32"/>
-      <c r="B191" s="32"/>
+      <c r="A191" s="36"/>
+      <c r="B191" s="36"/>
       <c r="C191" s="18">
         <v>43899</v>
       </c>
@@ -4807,8 +4806,8 @@
       <c r="I191" s="6"/>
     </row>
     <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="32"/>
-      <c r="B192" s="32"/>
+      <c r="A192" s="36"/>
+      <c r="B192" s="36"/>
       <c r="C192" s="18">
         <v>43901</v>
       </c>
@@ -4827,8 +4826,8 @@
       <c r="I192" s="6"/>
     </row>
     <row r="193" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="32"/>
-      <c r="B193" s="32"/>
+      <c r="A193" s="36"/>
+      <c r="B193" s="36"/>
       <c r="C193" s="18">
         <v>43903</v>
       </c>
@@ -4847,8 +4846,8 @@
       <c r="I193" s="6"/>
     </row>
     <row r="194" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="32"/>
-      <c r="B194" s="32"/>
+      <c r="A194" s="36"/>
+      <c r="B194" s="36"/>
       <c r="C194" s="18">
         <v>43905</v>
       </c>
@@ -4867,8 +4866,8 @@
       <c r="I194" s="14"/>
     </row>
     <row r="195" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="32"/>
-      <c r="B195" s="32"/>
+      <c r="A195" s="36"/>
+      <c r="B195" s="36"/>
       <c r="C195" s="18">
         <v>43907</v>
       </c>
@@ -4887,8 +4886,8 @@
       <c r="I195" s="14"/>
     </row>
     <row r="196" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="32"/>
-      <c r="B196" s="32"/>
+      <c r="A196" s="36"/>
+      <c r="B196" s="36"/>
       <c r="C196" s="18">
         <v>43909</v>
       </c>
@@ -4907,8 +4906,8 @@
       <c r="I196" s="14"/>
     </row>
     <row r="197" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="32"/>
-      <c r="B197" s="32"/>
+      <c r="A197" s="36"/>
+      <c r="B197" s="36"/>
       <c r="C197" s="18">
         <v>43912</v>
       </c>
@@ -4927,8 +4926,8 @@
       <c r="I197" s="14"/>
     </row>
     <row r="198" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="32"/>
-      <c r="B198" s="33"/>
+      <c r="A198" s="36"/>
+      <c r="B198" s="32"/>
       <c r="C198" s="18">
         <v>43915</v>
       </c>
@@ -4947,10 +4946,10 @@
       <c r="I198" s="11"/>
     </row>
     <row r="199" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="31">
+      <c r="A199" s="42">
         <v>15</v>
       </c>
-      <c r="B199" s="36" t="s">
+      <c r="B199" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C199" s="3">
@@ -4970,8 +4969,8 @@
       <c r="I199" s="7"/>
     </row>
     <row r="200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="32"/>
-      <c r="B200" s="32"/>
+      <c r="A200" s="36"/>
+      <c r="B200" s="36"/>
       <c r="C200" s="3">
         <v>43890</v>
       </c>
@@ -4990,8 +4989,8 @@
       <c r="I200" s="6"/>
     </row>
     <row r="201" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="32"/>
-      <c r="B201" s="32"/>
+      <c r="A201" s="36"/>
+      <c r="B201" s="36"/>
       <c r="C201" s="3">
         <v>43892</v>
       </c>
@@ -5010,8 +5009,8 @@
       <c r="I201" s="6"/>
     </row>
     <row r="202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="32"/>
-      <c r="B202" s="32"/>
+      <c r="A202" s="36"/>
+      <c r="B202" s="36"/>
       <c r="C202" s="3">
         <v>43893</v>
       </c>
@@ -5030,8 +5029,8 @@
       <c r="I202" s="6"/>
     </row>
     <row r="203" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="32"/>
-      <c r="B203" s="32"/>
+      <c r="A203" s="36"/>
+      <c r="B203" s="36"/>
       <c r="C203" s="3">
         <v>43895</v>
       </c>
@@ -5050,8 +5049,8 @@
       <c r="I203" s="6"/>
     </row>
     <row r="204" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="32"/>
-      <c r="B204" s="32"/>
+      <c r="A204" s="36"/>
+      <c r="B204" s="36"/>
       <c r="C204" s="3">
         <v>43897</v>
       </c>
@@ -5070,8 +5069,8 @@
       <c r="I204" s="6"/>
     </row>
     <row r="205" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="32"/>
-      <c r="B205" s="32"/>
+      <c r="A205" s="36"/>
+      <c r="B205" s="36"/>
       <c r="C205" s="3">
         <v>43899</v>
       </c>
@@ -5090,8 +5089,8 @@
       <c r="I205" s="6"/>
     </row>
     <row r="206" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="32"/>
-      <c r="B206" s="32"/>
+      <c r="A206" s="36"/>
+      <c r="B206" s="36"/>
       <c r="C206" s="3">
         <v>43901</v>
       </c>
@@ -5110,8 +5109,8 @@
       <c r="I206" s="6"/>
     </row>
     <row r="207" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="32"/>
-      <c r="B207" s="32"/>
+      <c r="A207" s="36"/>
+      <c r="B207" s="36"/>
       <c r="C207" s="3">
         <v>43903</v>
       </c>
@@ -5130,8 +5129,8 @@
       <c r="I207" s="11"/>
     </row>
     <row r="208" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="32"/>
-      <c r="B208" s="32"/>
+      <c r="A208" s="36"/>
+      <c r="B208" s="36"/>
       <c r="C208" s="3">
         <v>43905</v>
       </c>
@@ -5150,8 +5149,8 @@
       <c r="I208" s="14"/>
     </row>
     <row r="209" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="32"/>
-      <c r="B209" s="32"/>
+      <c r="A209" s="36"/>
+      <c r="B209" s="36"/>
       <c r="C209" s="3">
         <v>43907</v>
       </c>
@@ -5170,8 +5169,8 @@
       <c r="I209" s="14"/>
     </row>
     <row r="210" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="32"/>
-      <c r="B210" s="32"/>
+      <c r="A210" s="36"/>
+      <c r="B210" s="36"/>
       <c r="C210" s="3">
         <v>43909</v>
       </c>
@@ -5190,8 +5189,8 @@
       <c r="I210" s="14"/>
     </row>
     <row r="211" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="32"/>
-      <c r="B211" s="32"/>
+      <c r="A211" s="36"/>
+      <c r="B211" s="36"/>
       <c r="C211" s="3">
         <v>43912</v>
       </c>
@@ -5210,8 +5209,8 @@
       <c r="I211" s="14"/>
     </row>
     <row r="212" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="33"/>
-      <c r="B212" s="33"/>
+      <c r="A212" s="32"/>
+      <c r="B212" s="32"/>
       <c r="C212" s="3">
         <v>43915</v>
       </c>
@@ -5230,10 +5229,10 @@
       <c r="I212" s="14"/>
     </row>
     <row r="213" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="34">
+      <c r="A213" s="37">
         <v>16</v>
       </c>
-      <c r="B213" s="35" t="s">
+      <c r="B213" s="41" t="s">
         <v>36</v>
       </c>
       <c r="C213" s="18">
@@ -5253,8 +5252,8 @@
       <c r="I213" s="7"/>
     </row>
     <row r="214" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="32"/>
-      <c r="B214" s="32"/>
+      <c r="A214" s="36"/>
+      <c r="B214" s="36"/>
       <c r="C214" s="18">
         <v>43890</v>
       </c>
@@ -5273,8 +5272,8 @@
       <c r="I214" s="6"/>
     </row>
     <row r="215" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="32"/>
-      <c r="B215" s="32"/>
+      <c r="A215" s="36"/>
+      <c r="B215" s="36"/>
       <c r="C215" s="18">
         <v>43892</v>
       </c>
@@ -5293,8 +5292,8 @@
       <c r="I215" s="6"/>
     </row>
     <row r="216" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="32"/>
-      <c r="B216" s="32"/>
+      <c r="A216" s="36"/>
+      <c r="B216" s="36"/>
       <c r="C216" s="18">
         <v>43893</v>
       </c>
@@ -5313,8 +5312,8 @@
       <c r="I216" s="6"/>
     </row>
     <row r="217" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="32"/>
-      <c r="B217" s="32"/>
+      <c r="A217" s="36"/>
+      <c r="B217" s="36"/>
       <c r="C217" s="18">
         <v>43895</v>
       </c>
@@ -5333,8 +5332,8 @@
       <c r="I217" s="6"/>
     </row>
     <row r="218" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="32"/>
-      <c r="B218" s="32"/>
+      <c r="A218" s="36"/>
+      <c r="B218" s="36"/>
       <c r="C218" s="18">
         <v>43897</v>
       </c>
@@ -5353,8 +5352,8 @@
       <c r="I218" s="6"/>
     </row>
     <row r="219" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="32"/>
-      <c r="B219" s="32"/>
+      <c r="A219" s="36"/>
+      <c r="B219" s="36"/>
       <c r="C219" s="18">
         <v>43899</v>
       </c>
@@ -5373,8 +5372,8 @@
       <c r="I219" s="6"/>
     </row>
     <row r="220" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="32"/>
-      <c r="B220" s="32"/>
+      <c r="A220" s="36"/>
+      <c r="B220" s="36"/>
       <c r="C220" s="18">
         <v>43901</v>
       </c>
@@ -5393,8 +5392,8 @@
       <c r="I220" s="6"/>
     </row>
     <row r="221" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="32"/>
-      <c r="B221" s="32"/>
+      <c r="A221" s="36"/>
+      <c r="B221" s="36"/>
       <c r="C221" s="18">
         <v>43903</v>
       </c>
@@ -5413,8 +5412,8 @@
       <c r="I221" s="6"/>
     </row>
     <row r="222" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="32"/>
-      <c r="B222" s="32"/>
+      <c r="A222" s="36"/>
+      <c r="B222" s="36"/>
       <c r="C222" s="18">
         <v>43905</v>
       </c>
@@ -5433,8 +5432,8 @@
       <c r="I222" s="14"/>
     </row>
     <row r="223" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="32"/>
-      <c r="B223" s="32"/>
+      <c r="A223" s="36"/>
+      <c r="B223" s="36"/>
       <c r="C223" s="18">
         <v>43907</v>
       </c>
@@ -5453,8 +5452,8 @@
       <c r="I223" s="14"/>
     </row>
     <row r="224" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="32"/>
-      <c r="B224" s="32"/>
+      <c r="A224" s="36"/>
+      <c r="B224" s="36"/>
       <c r="C224" s="18">
         <v>43909</v>
       </c>
@@ -5473,8 +5472,8 @@
       <c r="I224" s="14"/>
     </row>
     <row r="225" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="32"/>
-      <c r="B225" s="32"/>
+      <c r="A225" s="36"/>
+      <c r="B225" s="36"/>
       <c r="C225" s="18">
         <v>43912</v>
       </c>
@@ -5493,8 +5492,8 @@
       <c r="I225" s="14"/>
     </row>
     <row r="226" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="32"/>
-      <c r="B226" s="33"/>
+      <c r="A226" s="36"/>
+      <c r="B226" s="32"/>
       <c r="C226" s="18">
         <v>43915</v>
       </c>
@@ -5513,10 +5512,10 @@
       <c r="I226" s="11"/>
     </row>
     <row r="227" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="31">
+      <c r="A227" s="42">
         <v>17</v>
       </c>
-      <c r="B227" s="36" t="s">
+      <c r="B227" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C227" s="3">
@@ -5536,8 +5535,8 @@
       <c r="I227" s="7"/>
     </row>
     <row r="228" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="32"/>
-      <c r="B228" s="32"/>
+      <c r="A228" s="36"/>
+      <c r="B228" s="36"/>
       <c r="C228" s="3">
         <v>43890</v>
       </c>
@@ -5556,8 +5555,8 @@
       <c r="I228" s="6"/>
     </row>
     <row r="229" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="32"/>
-      <c r="B229" s="32"/>
+      <c r="A229" s="36"/>
+      <c r="B229" s="36"/>
       <c r="C229" s="3">
         <v>43892</v>
       </c>
@@ -5576,8 +5575,8 @@
       <c r="I229" s="6"/>
     </row>
     <row r="230" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="32"/>
-      <c r="B230" s="32"/>
+      <c r="A230" s="36"/>
+      <c r="B230" s="36"/>
       <c r="C230" s="3">
         <v>43893</v>
       </c>
@@ -5596,8 +5595,8 @@
       <c r="I230" s="6"/>
     </row>
     <row r="231" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="32"/>
-      <c r="B231" s="32"/>
+      <c r="A231" s="36"/>
+      <c r="B231" s="36"/>
       <c r="C231" s="3">
         <v>43895</v>
       </c>
@@ -5616,8 +5615,8 @@
       <c r="I231" s="6"/>
     </row>
     <row r="232" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="32"/>
-      <c r="B232" s="32"/>
+      <c r="A232" s="36"/>
+      <c r="B232" s="36"/>
       <c r="C232" s="3">
         <v>43897</v>
       </c>
@@ -5636,8 +5635,8 @@
       <c r="I232" s="6"/>
     </row>
     <row r="233" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="32"/>
-      <c r="B233" s="32"/>
+      <c r="A233" s="36"/>
+      <c r="B233" s="36"/>
       <c r="C233" s="3">
         <v>43899</v>
       </c>
@@ -5656,8 +5655,8 @@
       <c r="I233" s="6"/>
     </row>
     <row r="234" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="32"/>
-      <c r="B234" s="32"/>
+      <c r="A234" s="36"/>
+      <c r="B234" s="36"/>
       <c r="C234" s="3">
         <v>43901</v>
       </c>
@@ -5676,8 +5675,8 @@
       <c r="I234" s="6"/>
     </row>
     <row r="235" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="32"/>
-      <c r="B235" s="32"/>
+      <c r="A235" s="36"/>
+      <c r="B235" s="36"/>
       <c r="C235" s="3">
         <v>43903</v>
       </c>
@@ -5696,8 +5695,8 @@
       <c r="I235" s="11"/>
     </row>
     <row r="236" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="32"/>
-      <c r="B236" s="32"/>
+      <c r="A236" s="36"/>
+      <c r="B236" s="36"/>
       <c r="C236" s="3">
         <v>43905</v>
       </c>
@@ -5716,8 +5715,8 @@
       <c r="I236" s="14"/>
     </row>
     <row r="237" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="32"/>
-      <c r="B237" s="32"/>
+      <c r="A237" s="36"/>
+      <c r="B237" s="36"/>
       <c r="C237" s="3">
         <v>43907</v>
       </c>
@@ -5736,8 +5735,8 @@
       <c r="I237" s="14"/>
     </row>
     <row r="238" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="32"/>
-      <c r="B238" s="32"/>
+      <c r="A238" s="36"/>
+      <c r="B238" s="36"/>
       <c r="C238" s="3">
         <v>43909</v>
       </c>
@@ -5756,8 +5755,8 @@
       <c r="I238" s="14"/>
     </row>
     <row r="239" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="32"/>
-      <c r="B239" s="32"/>
+      <c r="A239" s="36"/>
+      <c r="B239" s="36"/>
       <c r="C239" s="3">
         <v>43912</v>
       </c>
@@ -5776,8 +5775,8 @@
       <c r="I239" s="14"/>
     </row>
     <row r="240" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="33"/>
-      <c r="B240" s="33"/>
+      <c r="A240" s="32"/>
+      <c r="B240" s="32"/>
       <c r="C240" s="3">
         <v>43915</v>
       </c>
@@ -5796,10 +5795,10 @@
       <c r="I240" s="14"/>
     </row>
     <row r="241" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="34">
+      <c r="A241" s="37">
         <v>18</v>
       </c>
-      <c r="B241" s="35" t="s">
+      <c r="B241" s="41" t="s">
         <v>38</v>
       </c>
       <c r="C241" s="18">
@@ -5819,8 +5818,8 @@
       <c r="I241" s="7"/>
     </row>
     <row r="242" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="32"/>
-      <c r="B242" s="32"/>
+      <c r="A242" s="36"/>
+      <c r="B242" s="36"/>
       <c r="C242" s="18">
         <v>43890</v>
       </c>
@@ -5839,8 +5838,8 @@
       <c r="I242" s="6"/>
     </row>
     <row r="243" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="32"/>
-      <c r="B243" s="32"/>
+      <c r="A243" s="36"/>
+      <c r="B243" s="36"/>
       <c r="C243" s="18">
         <v>43892</v>
       </c>
@@ -5859,8 +5858,8 @@
       <c r="I243" s="6"/>
     </row>
     <row r="244" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="32"/>
-      <c r="B244" s="32"/>
+      <c r="A244" s="36"/>
+      <c r="B244" s="36"/>
       <c r="C244" s="18">
         <v>43893</v>
       </c>
@@ -5879,8 +5878,8 @@
       <c r="I244" s="6"/>
     </row>
     <row r="245" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="32"/>
-      <c r="B245" s="32"/>
+      <c r="A245" s="36"/>
+      <c r="B245" s="36"/>
       <c r="C245" s="18">
         <v>43895</v>
       </c>
@@ -5899,8 +5898,8 @@
       <c r="I245" s="6"/>
     </row>
     <row r="246" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="32"/>
-      <c r="B246" s="32"/>
+      <c r="A246" s="36"/>
+      <c r="B246" s="36"/>
       <c r="C246" s="18">
         <v>43897</v>
       </c>
@@ -5919,8 +5918,8 @@
       <c r="I246" s="6"/>
     </row>
     <row r="247" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="32"/>
-      <c r="B247" s="32"/>
+      <c r="A247" s="36"/>
+      <c r="B247" s="36"/>
       <c r="C247" s="18">
         <v>43899</v>
       </c>
@@ -5939,8 +5938,8 @@
       <c r="I247" s="6"/>
     </row>
     <row r="248" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="32"/>
-      <c r="B248" s="32"/>
+      <c r="A248" s="36"/>
+      <c r="B248" s="36"/>
       <c r="C248" s="18">
         <v>43901</v>
       </c>
@@ -5959,8 +5958,8 @@
       <c r="I248" s="6"/>
     </row>
     <row r="249" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="32"/>
-      <c r="B249" s="32"/>
+      <c r="A249" s="36"/>
+      <c r="B249" s="36"/>
       <c r="C249" s="18">
         <v>43903</v>
       </c>
@@ -5979,8 +5978,8 @@
       <c r="I249" s="6"/>
     </row>
     <row r="250" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="32"/>
-      <c r="B250" s="32"/>
+      <c r="A250" s="36"/>
+      <c r="B250" s="36"/>
       <c r="C250" s="18">
         <v>43905</v>
       </c>
@@ -5999,8 +5998,8 @@
       <c r="I250" s="14"/>
     </row>
     <row r="251" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="32"/>
-      <c r="B251" s="32"/>
+      <c r="A251" s="36"/>
+      <c r="B251" s="36"/>
       <c r="C251" s="18">
         <v>43907</v>
       </c>
@@ -6019,8 +6018,8 @@
       <c r="I251" s="14"/>
     </row>
     <row r="252" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="32"/>
-      <c r="B252" s="32"/>
+      <c r="A252" s="36"/>
+      <c r="B252" s="36"/>
       <c r="C252" s="18">
         <v>43909</v>
       </c>
@@ -6039,8 +6038,8 @@
       <c r="I252" s="14"/>
     </row>
     <row r="253" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="32"/>
-      <c r="B253" s="32"/>
+      <c r="A253" s="36"/>
+      <c r="B253" s="36"/>
       <c r="C253" s="18">
         <v>43912</v>
       </c>
@@ -6059,8 +6058,8 @@
       <c r="I253" s="14"/>
     </row>
     <row r="254" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="32"/>
-      <c r="B254" s="33"/>
+      <c r="A254" s="36"/>
+      <c r="B254" s="32"/>
       <c r="C254" s="18">
         <v>43915</v>
       </c>
@@ -6079,10 +6078,10 @@
       <c r="I254" s="11"/>
     </row>
     <row r="255" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="31">
+      <c r="A255" s="42">
         <v>19</v>
       </c>
-      <c r="B255" s="36" t="s">
+      <c r="B255" s="40" t="s">
         <v>39</v>
       </c>
       <c r="C255" s="3">
@@ -6102,8 +6101,8 @@
       <c r="I255" s="7"/>
     </row>
     <row r="256" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="32"/>
-      <c r="B256" s="32"/>
+      <c r="A256" s="36"/>
+      <c r="B256" s="36"/>
       <c r="C256" s="3">
         <v>43890</v>
       </c>
@@ -6122,8 +6121,8 @@
       <c r="I256" s="6"/>
     </row>
     <row r="257" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="32"/>
-      <c r="B257" s="32"/>
+      <c r="A257" s="36"/>
+      <c r="B257" s="36"/>
       <c r="C257" s="3">
         <v>43892</v>
       </c>
@@ -6142,8 +6141,8 @@
       <c r="I257" s="6"/>
     </row>
     <row r="258" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="32"/>
-      <c r="B258" s="32"/>
+      <c r="A258" s="36"/>
+      <c r="B258" s="36"/>
       <c r="C258" s="3">
         <v>43893</v>
       </c>
@@ -6162,8 +6161,8 @@
       <c r="I258" s="6"/>
     </row>
     <row r="259" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="32"/>
-      <c r="B259" s="32"/>
+      <c r="A259" s="36"/>
+      <c r="B259" s="36"/>
       <c r="C259" s="3">
         <v>43895</v>
       </c>
@@ -6182,8 +6181,8 @@
       <c r="I259" s="6"/>
     </row>
     <row r="260" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="32"/>
-      <c r="B260" s="32"/>
+      <c r="A260" s="36"/>
+      <c r="B260" s="36"/>
       <c r="C260" s="3">
         <v>43897</v>
       </c>
@@ -6202,8 +6201,8 @@
       <c r="I260" s="6"/>
     </row>
     <row r="261" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="32"/>
-      <c r="B261" s="32"/>
+      <c r="A261" s="36"/>
+      <c r="B261" s="36"/>
       <c r="C261" s="3">
         <v>43899</v>
       </c>
@@ -6222,8 +6221,8 @@
       <c r="I261" s="6"/>
     </row>
     <row r="262" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="32"/>
-      <c r="B262" s="32"/>
+      <c r="A262" s="36"/>
+      <c r="B262" s="36"/>
       <c r="C262" s="3">
         <v>43901</v>
       </c>
@@ -6242,8 +6241,8 @@
       <c r="I262" s="6"/>
     </row>
     <row r="263" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="32"/>
-      <c r="B263" s="32"/>
+      <c r="A263" s="36"/>
+      <c r="B263" s="36"/>
       <c r="C263" s="3">
         <v>43903</v>
       </c>
@@ -6262,8 +6261,8 @@
       <c r="I263" s="11"/>
     </row>
     <row r="264" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="32"/>
-      <c r="B264" s="32"/>
+      <c r="A264" s="36"/>
+      <c r="B264" s="36"/>
       <c r="C264" s="3">
         <v>43905</v>
       </c>
@@ -6282,8 +6281,8 @@
       <c r="I264" s="14"/>
     </row>
     <row r="265" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="32"/>
-      <c r="B265" s="32"/>
+      <c r="A265" s="36"/>
+      <c r="B265" s="36"/>
       <c r="C265" s="3">
         <v>43907</v>
       </c>
@@ -6302,8 +6301,8 @@
       <c r="I265" s="14"/>
     </row>
     <row r="266" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="32"/>
-      <c r="B266" s="32"/>
+      <c r="A266" s="36"/>
+      <c r="B266" s="36"/>
       <c r="C266" s="3">
         <v>43909</v>
       </c>
@@ -6322,8 +6321,8 @@
       <c r="I266" s="14"/>
     </row>
     <row r="267" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="32"/>
-      <c r="B267" s="32"/>
+      <c r="A267" s="36"/>
+      <c r="B267" s="36"/>
       <c r="C267" s="3">
         <v>43912</v>
       </c>
@@ -6342,8 +6341,8 @@
       <c r="I267" s="14"/>
     </row>
     <row r="268" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="33"/>
-      <c r="B268" s="33"/>
+      <c r="A268" s="32"/>
+      <c r="B268" s="32"/>
       <c r="C268" s="3">
         <v>43915</v>
       </c>
@@ -6362,10 +6361,10 @@
       <c r="I268" s="14"/>
     </row>
     <row r="269" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="34">
+      <c r="A269" s="37">
         <v>20</v>
       </c>
-      <c r="B269" s="35" t="s">
+      <c r="B269" s="41" t="s">
         <v>40</v>
       </c>
       <c r="C269" s="18">
@@ -6385,8 +6384,8 @@
       <c r="I269" s="7"/>
     </row>
     <row r="270" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="32"/>
-      <c r="B270" s="32"/>
+      <c r="A270" s="36"/>
+      <c r="B270" s="36"/>
       <c r="C270" s="18">
         <v>43890</v>
       </c>
@@ -6405,8 +6404,8 @@
       <c r="I270" s="6"/>
     </row>
     <row r="271" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="32"/>
-      <c r="B271" s="32"/>
+      <c r="A271" s="36"/>
+      <c r="B271" s="36"/>
       <c r="C271" s="18">
         <v>43892</v>
       </c>
@@ -6425,8 +6424,8 @@
       <c r="I271" s="6"/>
     </row>
     <row r="272" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="32"/>
-      <c r="B272" s="32"/>
+      <c r="A272" s="36"/>
+      <c r="B272" s="36"/>
       <c r="C272" s="18">
         <v>43893</v>
       </c>
@@ -6445,8 +6444,8 @@
       <c r="I272" s="6"/>
     </row>
     <row r="273" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="32"/>
-      <c r="B273" s="32"/>
+      <c r="A273" s="36"/>
+      <c r="B273" s="36"/>
       <c r="C273" s="18">
         <v>43895</v>
       </c>
@@ -6465,8 +6464,8 @@
       <c r="I273" s="6"/>
     </row>
     <row r="274" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="32"/>
-      <c r="B274" s="32"/>
+      <c r="A274" s="36"/>
+      <c r="B274" s="36"/>
       <c r="C274" s="18">
         <v>43897</v>
       </c>
@@ -6485,8 +6484,8 @@
       <c r="I274" s="6"/>
     </row>
     <row r="275" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="32"/>
-      <c r="B275" s="32"/>
+      <c r="A275" s="36"/>
+      <c r="B275" s="36"/>
       <c r="C275" s="18">
         <v>43899</v>
       </c>
@@ -6505,8 +6504,8 @@
       <c r="I275" s="6"/>
     </row>
     <row r="276" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="32"/>
-      <c r="B276" s="32"/>
+      <c r="A276" s="36"/>
+      <c r="B276" s="36"/>
       <c r="C276" s="18">
         <v>43901</v>
       </c>
@@ -6525,8 +6524,8 @@
       <c r="I276" s="6"/>
     </row>
     <row r="277" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="32"/>
-      <c r="B277" s="32"/>
+      <c r="A277" s="36"/>
+      <c r="B277" s="36"/>
       <c r="C277" s="18">
         <v>43903</v>
       </c>
@@ -6545,8 +6544,8 @@
       <c r="I277" s="6"/>
     </row>
     <row r="278" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="32"/>
-      <c r="B278" s="32"/>
+      <c r="A278" s="36"/>
+      <c r="B278" s="36"/>
       <c r="C278" s="18">
         <v>43905</v>
       </c>
@@ -6565,8 +6564,8 @@
       <c r="I278" s="14"/>
     </row>
     <row r="279" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="32"/>
-      <c r="B279" s="32"/>
+      <c r="A279" s="36"/>
+      <c r="B279" s="36"/>
       <c r="C279" s="18">
         <v>43907</v>
       </c>
@@ -6585,8 +6584,8 @@
       <c r="I279" s="14"/>
     </row>
     <row r="280" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="32"/>
-      <c r="B280" s="32"/>
+      <c r="A280" s="36"/>
+      <c r="B280" s="36"/>
       <c r="C280" s="18">
         <v>43909</v>
       </c>
@@ -6605,8 +6604,8 @@
       <c r="I280" s="14"/>
     </row>
     <row r="281" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="32"/>
-      <c r="B281" s="32"/>
+      <c r="A281" s="36"/>
+      <c r="B281" s="36"/>
       <c r="C281" s="18">
         <v>43912</v>
       </c>
@@ -6625,8 +6624,8 @@
       <c r="I281" s="14"/>
     </row>
     <row r="282" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="32"/>
-      <c r="B282" s="33"/>
+      <c r="A282" s="36"/>
+      <c r="B282" s="32"/>
       <c r="C282" s="18">
         <v>43915</v>
       </c>
@@ -6645,10 +6644,10 @@
       <c r="I282" s="11"/>
     </row>
     <row r="283" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="31">
+      <c r="A283" s="42">
         <v>21</v>
       </c>
-      <c r="B283" s="31"/>
+      <c r="B283" s="42"/>
       <c r="C283" s="3">
         <v>43888</v>
       </c>
@@ -6666,8 +6665,8 @@
       <c r="I283" s="7"/>
     </row>
     <row r="284" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="32"/>
-      <c r="B284" s="32"/>
+      <c r="A284" s="36"/>
+      <c r="B284" s="36"/>
       <c r="C284" s="3">
         <v>43890</v>
       </c>
@@ -6686,8 +6685,8 @@
       <c r="I284" s="6"/>
     </row>
     <row r="285" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="32"/>
-      <c r="B285" s="32"/>
+      <c r="A285" s="36"/>
+      <c r="B285" s="36"/>
       <c r="C285" s="3">
         <v>43892</v>
       </c>
@@ -6706,8 +6705,8 @@
       <c r="I285" s="6"/>
     </row>
     <row r="286" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="32"/>
-      <c r="B286" s="32"/>
+      <c r="A286" s="36"/>
+      <c r="B286" s="36"/>
       <c r="C286" s="3">
         <v>43893</v>
       </c>
@@ -6726,8 +6725,8 @@
       <c r="I286" s="6"/>
     </row>
     <row r="287" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="32"/>
-      <c r="B287" s="32"/>
+      <c r="A287" s="36"/>
+      <c r="B287" s="36"/>
       <c r="C287" s="3">
         <v>43895</v>
       </c>
@@ -6746,8 +6745,8 @@
       <c r="I287" s="6"/>
     </row>
     <row r="288" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="32"/>
-      <c r="B288" s="32"/>
+      <c r="A288" s="36"/>
+      <c r="B288" s="36"/>
       <c r="C288" s="3">
         <v>43897</v>
       </c>
@@ -6766,8 +6765,8 @@
       <c r="I288" s="6"/>
     </row>
     <row r="289" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="32"/>
-      <c r="B289" s="32"/>
+      <c r="A289" s="36"/>
+      <c r="B289" s="36"/>
       <c r="C289" s="3">
         <v>43899</v>
       </c>
@@ -6786,8 +6785,8 @@
       <c r="I289" s="6"/>
     </row>
     <row r="290" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="32"/>
-      <c r="B290" s="32"/>
+      <c r="A290" s="36"/>
+      <c r="B290" s="36"/>
       <c r="C290" s="3">
         <v>43901</v>
       </c>
@@ -6806,8 +6805,8 @@
       <c r="I290" s="6"/>
     </row>
     <row r="291" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="32"/>
-      <c r="B291" s="32"/>
+      <c r="A291" s="36"/>
+      <c r="B291" s="36"/>
       <c r="C291" s="3">
         <v>43903</v>
       </c>
@@ -6826,8 +6825,8 @@
       <c r="I291" s="11"/>
     </row>
     <row r="292" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="32"/>
-      <c r="B292" s="32"/>
+      <c r="A292" s="36"/>
+      <c r="B292" s="36"/>
       <c r="C292" s="3">
         <v>43905</v>
       </c>
@@ -6846,8 +6845,8 @@
       <c r="I292" s="14"/>
     </row>
     <row r="293" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="32"/>
-      <c r="B293" s="32"/>
+      <c r="A293" s="36"/>
+      <c r="B293" s="36"/>
       <c r="C293" s="3">
         <v>43907</v>
       </c>
@@ -6866,8 +6865,8 @@
       <c r="I293" s="14"/>
     </row>
     <row r="294" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="32"/>
-      <c r="B294" s="32"/>
+      <c r="A294" s="36"/>
+      <c r="B294" s="36"/>
       <c r="C294" s="3">
         <v>43909</v>
       </c>
@@ -6886,8 +6885,8 @@
       <c r="I294" s="14"/>
     </row>
     <row r="295" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="32"/>
-      <c r="B295" s="32"/>
+      <c r="A295" s="36"/>
+      <c r="B295" s="36"/>
       <c r="C295" s="3">
         <v>43912</v>
       </c>
@@ -6906,8 +6905,8 @@
       <c r="I295" s="14"/>
     </row>
     <row r="296" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="33"/>
-      <c r="B296" s="33"/>
+      <c r="A296" s="32"/>
+      <c r="B296" s="32"/>
       <c r="C296" s="3">
         <v>43915</v>
       </c>
@@ -7513,28 +7512,23 @@
     <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="A31:A44"/>
-    <mergeCell ref="A17:A30"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="B31:B44"/>
-    <mergeCell ref="B45:B58"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="A87:A100"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="A73:A86"/>
-    <mergeCell ref="A101:A114"/>
+    <mergeCell ref="A227:A240"/>
+    <mergeCell ref="A213:A226"/>
+    <mergeCell ref="B213:B226"/>
+    <mergeCell ref="B227:B240"/>
+    <mergeCell ref="A241:A254"/>
+    <mergeCell ref="B241:B254"/>
+    <mergeCell ref="A255:A268"/>
+    <mergeCell ref="A283:A296"/>
+    <mergeCell ref="A269:A282"/>
+    <mergeCell ref="B283:B296"/>
+    <mergeCell ref="B255:B268"/>
+    <mergeCell ref="B269:B282"/>
+    <mergeCell ref="B59:B72"/>
+    <mergeCell ref="B73:B86"/>
+    <mergeCell ref="B87:B100"/>
+    <mergeCell ref="B101:B114"/>
+    <mergeCell ref="B115:B128"/>
     <mergeCell ref="A129:A142"/>
     <mergeCell ref="B157:B170"/>
     <mergeCell ref="B171:B184"/>
@@ -7547,23 +7541,28 @@
     <mergeCell ref="A157:A170"/>
     <mergeCell ref="A199:A212"/>
     <mergeCell ref="A185:A198"/>
-    <mergeCell ref="B59:B72"/>
-    <mergeCell ref="B73:B86"/>
-    <mergeCell ref="B87:B100"/>
-    <mergeCell ref="B101:B114"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="A255:A268"/>
-    <mergeCell ref="A283:A296"/>
-    <mergeCell ref="A269:A282"/>
-    <mergeCell ref="B283:B296"/>
-    <mergeCell ref="B255:B268"/>
-    <mergeCell ref="B269:B282"/>
-    <mergeCell ref="A227:A240"/>
-    <mergeCell ref="A213:A226"/>
-    <mergeCell ref="B213:B226"/>
-    <mergeCell ref="B227:B240"/>
-    <mergeCell ref="A241:A254"/>
-    <mergeCell ref="B241:B254"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="A73:A86"/>
+    <mergeCell ref="A101:A114"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="A31:A44"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="B31:B44"/>
+    <mergeCell ref="B45:B58"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/module1/CaseStudy_FuramaResort/Check List CaseStudy C0220G1.xlsx
+++ b/module1/CaseStudy_FuramaResort/Check List CaseStudy C0220G1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="43">
   <si>
     <t>Module</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>DOING</t>
   </si>
 </sst>
 </file>
@@ -410,21 +413,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,14 +436,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,7 +663,7 @@
   <dimension ref="A1:J882"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -677,47 +680,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="31"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="32"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -743,8 +746,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="3">
         <v>43890</v>
       </c>
@@ -766,8 +769,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="3">
         <v>43892</v>
       </c>
@@ -787,8 +790,8 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="3">
         <v>43893</v>
       </c>
@@ -808,8 +811,8 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="3">
         <v>43895</v>
       </c>
@@ -831,8 +834,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="3">
         <v>43897</v>
       </c>
@@ -852,8 +855,8 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="3">
         <v>43899</v>
       </c>
@@ -873,8 +876,8 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="3">
         <v>43901</v>
       </c>
@@ -893,8 +896,8 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="3">
         <v>43903</v>
       </c>
@@ -914,8 +917,8 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3">
         <v>43905</v>
       </c>
@@ -935,8 +938,8 @@
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="3">
         <v>43907</v>
       </c>
@@ -956,8 +959,8 @@
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="3">
         <v>43909</v>
       </c>
@@ -977,8 +980,8 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="3">
         <v>43912</v>
       </c>
@@ -998,8 +1001,8 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="3">
         <v>43915</v>
       </c>
@@ -1019,7 +1022,7 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
+      <c r="A17" s="34">
         <v>2</v>
       </c>
       <c r="B17" s="39" t="s">
@@ -1045,8 +1048,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="18">
         <v>43890</v>
       </c>
@@ -1068,8 +1071,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="18">
         <v>43892</v>
       </c>
@@ -1089,8 +1092,8 @@
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="18">
         <v>43893</v>
       </c>
@@ -1110,8 +1113,8 @@
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="18">
         <v>43895</v>
       </c>
@@ -1131,8 +1134,8 @@
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="18">
         <v>43897</v>
       </c>
@@ -1152,8 +1155,8 @@
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="18">
         <v>43899</v>
       </c>
@@ -1173,8 +1176,8 @@
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="18">
         <v>43901</v>
       </c>
@@ -1194,8 +1197,8 @@
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="18">
         <v>43903</v>
       </c>
@@ -1215,8 +1218,8 @@
       <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="18">
         <v>43905</v>
       </c>
@@ -1236,8 +1239,8 @@
       <c r="J26" s="12"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="18">
         <v>43907</v>
       </c>
@@ -1257,8 +1260,8 @@
       <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="18">
         <v>43909</v>
       </c>
@@ -1278,8 +1281,8 @@
       <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="18">
         <v>43912</v>
       </c>
@@ -1299,8 +1302,8 @@
       <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="18">
         <v>43915</v>
       </c>
@@ -1320,10 +1323,10 @@
       <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
+      <c r="A31" s="37">
         <v>3</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="3">
@@ -1344,8 +1347,8 @@
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="3">
         <v>43890</v>
       </c>
@@ -1365,8 +1368,8 @@
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="3">
         <v>43892</v>
       </c>
@@ -1388,8 +1391,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="3">
         <v>43893</v>
       </c>
@@ -1409,8 +1412,8 @@
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="3">
         <v>43895</v>
       </c>
@@ -1430,8 +1433,8 @@
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="3">
         <v>43897</v>
       </c>
@@ -1451,8 +1454,8 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="3">
         <v>43899</v>
       </c>
@@ -1472,8 +1475,8 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="3">
         <v>43901</v>
       </c>
@@ -1493,8 +1496,8 @@
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="3">
         <v>43903</v>
       </c>
@@ -1514,8 +1517,8 @@
       <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="3">
         <v>43905</v>
       </c>
@@ -1535,8 +1538,8 @@
       <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="3">
         <v>43907</v>
       </c>
@@ -1556,8 +1559,8 @@
       <c r="J41" s="12"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="3">
         <v>43909</v>
       </c>
@@ -1577,8 +1580,8 @@
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="3">
         <v>43912</v>
       </c>
@@ -1598,8 +1601,8 @@
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="3">
         <v>43915</v>
       </c>
@@ -1619,10 +1622,10 @@
       <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="37">
+      <c r="A45" s="34">
         <v>4</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="18">
@@ -1645,8 +1648,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="18">
         <v>43890</v>
       </c>
@@ -1666,8 +1669,8 @@
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="18">
         <v>43892</v>
       </c>
@@ -1687,8 +1690,8 @@
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="18">
         <v>43893</v>
       </c>
@@ -1708,8 +1711,8 @@
       <c r="J48" s="8"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="18">
         <v>43895</v>
       </c>
@@ -1729,8 +1732,8 @@
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="18">
         <v>43897</v>
       </c>
@@ -1750,8 +1753,8 @@
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="18">
         <v>43899</v>
       </c>
@@ -1771,8 +1774,8 @@
       <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="18">
         <v>43901</v>
       </c>
@@ -1792,8 +1795,8 @@
       <c r="J52" s="12"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="18">
         <v>43903</v>
       </c>
@@ -1813,8 +1816,8 @@
       <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="18">
         <v>43905</v>
       </c>
@@ -1834,8 +1837,8 @@
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="18">
         <v>43907</v>
       </c>
@@ -1855,8 +1858,8 @@
       <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="18">
         <v>43909</v>
       </c>
@@ -1876,8 +1879,8 @@
       <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="18">
         <v>43912</v>
       </c>
@@ -1897,8 +1900,8 @@
       <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="32"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="18">
         <v>43915</v>
       </c>
@@ -1918,10 +1921,10 @@
       <c r="J58" s="12"/>
     </row>
     <row r="59" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="35">
+      <c r="A59" s="37">
         <v>5</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="36" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="3">
@@ -1944,8 +1947,8 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="3">
         <v>43890</v>
       </c>
@@ -1967,8 +1970,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="36"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="3">
         <v>43892</v>
       </c>
@@ -1988,8 +1991,8 @@
       <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="36"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="3">
         <v>43893</v>
       </c>
@@ -2009,8 +2012,8 @@
       <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="3">
         <v>43895</v>
       </c>
@@ -2030,8 +2033,8 @@
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="36"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="3">
         <v>43897</v>
       </c>
@@ -2051,8 +2054,8 @@
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="3">
         <v>43899</v>
       </c>
@@ -2072,8 +2075,8 @@
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="36"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="3">
         <v>43901</v>
       </c>
@@ -2093,8 +2096,8 @@
       <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="36"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="3">
         <v>43903</v>
       </c>
@@ -2114,8 +2117,8 @@
       <c r="J67" s="12"/>
     </row>
     <row r="68" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
-      <c r="B68" s="36"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="3">
         <v>43905</v>
       </c>
@@ -2135,8 +2138,8 @@
       <c r="J68" s="12"/>
     </row>
     <row r="69" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="36"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="3">
         <v>43907</v>
       </c>
@@ -2156,8 +2159,8 @@
       <c r="J69" s="12"/>
     </row>
     <row r="70" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="3">
         <v>43909</v>
       </c>
@@ -2177,8 +2180,8 @@
       <c r="J70" s="12"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="36"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="3">
         <v>43912</v>
       </c>
@@ -2198,8 +2201,8 @@
       <c r="J71" s="12"/>
     </row>
     <row r="72" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
-      <c r="B72" s="32"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="3">
         <v>43915</v>
       </c>
@@ -2219,10 +2222,10 @@
       <c r="J72" s="12"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="37">
+      <c r="A73" s="34">
         <v>6</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C73" s="18">
@@ -2245,8 +2248,8 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="36"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="18">
         <v>43890</v>
       </c>
@@ -2268,8 +2271,8 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="18">
         <v>43892</v>
       </c>
@@ -2289,8 +2292,8 @@
       <c r="J75" s="8"/>
     </row>
     <row r="76" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="18">
         <v>43893</v>
       </c>
@@ -2310,8 +2313,8 @@
       <c r="J76" s="8"/>
     </row>
     <row r="77" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="18">
         <v>43895</v>
       </c>
@@ -2331,8 +2334,8 @@
       <c r="J77" s="8"/>
     </row>
     <row r="78" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="36"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="18">
         <v>43897</v>
       </c>
@@ -2352,8 +2355,8 @@
       <c r="J78" s="8"/>
     </row>
     <row r="79" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="36"/>
-      <c r="B79" s="36"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="18">
         <v>43899</v>
       </c>
@@ -2373,8 +2376,8 @@
       <c r="J79" s="12"/>
     </row>
     <row r="80" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="36"/>
-      <c r="B80" s="36"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="18">
         <v>43901</v>
       </c>
@@ -2394,8 +2397,8 @@
       <c r="J80" s="12"/>
     </row>
     <row r="81" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="18">
         <v>43903</v>
       </c>
@@ -2415,8 +2418,8 @@
       <c r="J81" s="12"/>
     </row>
     <row r="82" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="36"/>
-      <c r="B82" s="36"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="18">
         <v>43905</v>
       </c>
@@ -2436,8 +2439,8 @@
       <c r="J82" s="12"/>
     </row>
     <row r="83" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
-      <c r="B83" s="36"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="18">
         <v>43907</v>
       </c>
@@ -2457,8 +2460,8 @@
       <c r="J83" s="12"/>
     </row>
     <row r="84" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="36"/>
-      <c r="B84" s="36"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="18">
         <v>43909</v>
       </c>
@@ -2478,8 +2481,8 @@
       <c r="J84" s="12"/>
     </row>
     <row r="85" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="36"/>
-      <c r="B85" s="36"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="18">
         <v>43912</v>
       </c>
@@ -2499,8 +2502,8 @@
       <c r="J85" s="12"/>
     </row>
     <row r="86" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="36"/>
-      <c r="B86" s="32"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="18">
         <v>43915</v>
       </c>
@@ -2520,10 +2523,10 @@
       <c r="J86" s="12"/>
     </row>
     <row r="87" spans="1:10" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="35">
+      <c r="A87" s="37">
         <v>7</v>
       </c>
-      <c r="B87" s="40" t="s">
+      <c r="B87" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C87" s="3">
@@ -2544,8 +2547,8 @@
       <c r="J87" s="8"/>
     </row>
     <row r="88" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="36"/>
-      <c r="B88" s="36"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="3">
         <v>43890</v>
       </c>
@@ -2565,8 +2568,8 @@
       <c r="J88" s="8"/>
     </row>
     <row r="89" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="36"/>
-      <c r="B89" s="36"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="32"/>
       <c r="C89" s="3">
         <v>43892</v>
       </c>
@@ -2586,8 +2589,8 @@
       <c r="J89" s="8"/>
     </row>
     <row r="90" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="36"/>
-      <c r="B90" s="36"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="3">
         <v>43893</v>
       </c>
@@ -2607,8 +2610,8 @@
       <c r="J90" s="8"/>
     </row>
     <row r="91" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="36"/>
-      <c r="B91" s="36"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="3">
         <v>43895</v>
       </c>
@@ -2628,8 +2631,8 @@
       <c r="J91" s="8"/>
     </row>
     <row r="92" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="32"/>
       <c r="C92" s="3">
         <v>43897</v>
       </c>
@@ -2649,8 +2652,8 @@
       <c r="J92" s="8"/>
     </row>
     <row r="93" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="36"/>
-      <c r="B93" s="36"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
       <c r="C93" s="3">
         <v>43899</v>
       </c>
@@ -2670,8 +2673,8 @@
       <c r="J93" s="8"/>
     </row>
     <row r="94" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
-      <c r="B94" s="36"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
       <c r="C94" s="3">
         <v>43901</v>
       </c>
@@ -2691,8 +2694,8 @@
       <c r="J94" s="8"/>
     </row>
     <row r="95" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="36"/>
-      <c r="B95" s="36"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="3">
         <v>43903</v>
       </c>
@@ -2712,8 +2715,8 @@
       <c r="J95" s="12"/>
     </row>
     <row r="96" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
-      <c r="B96" s="36"/>
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="3">
         <v>43905</v>
       </c>
@@ -2733,8 +2736,8 @@
       <c r="J96" s="12"/>
     </row>
     <row r="97" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="36"/>
-      <c r="B97" s="36"/>
+      <c r="A97" s="32"/>
+      <c r="B97" s="32"/>
       <c r="C97" s="3">
         <v>43907</v>
       </c>
@@ -2754,8 +2757,8 @@
       <c r="J97" s="12"/>
     </row>
     <row r="98" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="36"/>
-      <c r="B98" s="36"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
       <c r="C98" s="3">
         <v>43909</v>
       </c>
@@ -2775,8 +2778,8 @@
       <c r="J98" s="12"/>
     </row>
     <row r="99" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="36"/>
-      <c r="B99" s="36"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="32"/>
       <c r="C99" s="3">
         <v>43912</v>
       </c>
@@ -2796,8 +2799,8 @@
       <c r="J99" s="12"/>
     </row>
     <row r="100" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="36"/>
-      <c r="B100" s="32"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="3">
         <v>43915</v>
       </c>
@@ -2817,10 +2820,10 @@
       <c r="J100" s="12"/>
     </row>
     <row r="101" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="37">
+      <c r="A101" s="34">
         <v>8</v>
       </c>
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C101" s="18">
@@ -2845,8 +2848,8 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="36"/>
-      <c r="B102" s="36"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="18">
         <v>43890</v>
       </c>
@@ -2870,8 +2873,8 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
+      <c r="A103" s="32"/>
+      <c r="B103" s="32"/>
       <c r="C103" s="18">
         <v>43892</v>
       </c>
@@ -2895,8 +2898,8 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="36"/>
-      <c r="B104" s="36"/>
+      <c r="A104" s="32"/>
+      <c r="B104" s="32"/>
       <c r="C104" s="18">
         <v>43893</v>
       </c>
@@ -2920,8 +2923,8 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="36"/>
-      <c r="B105" s="36"/>
+      <c r="A105" s="32"/>
+      <c r="B105" s="32"/>
       <c r="C105" s="18">
         <v>43895</v>
       </c>
@@ -2936,15 +2939,17 @@
         <v>3</v>
       </c>
       <c r="G105" s="19"/>
-      <c r="H105" s="6"/>
+      <c r="H105" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I105" s="6"/>
       <c r="J105" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="36"/>
-      <c r="B106" s="36"/>
+      <c r="A106" s="32"/>
+      <c r="B106" s="32"/>
       <c r="C106" s="18">
         <v>43897</v>
       </c>
@@ -2966,8 +2971,8 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="36"/>
-      <c r="B107" s="36"/>
+      <c r="A107" s="32"/>
+      <c r="B107" s="32"/>
       <c r="C107" s="18">
         <v>43899</v>
       </c>
@@ -2989,8 +2994,8 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="36"/>
-      <c r="B108" s="36"/>
+      <c r="A108" s="32"/>
+      <c r="B108" s="32"/>
       <c r="C108" s="18">
         <v>43901</v>
       </c>
@@ -3012,8 +3017,8 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="36"/>
-      <c r="B109" s="36"/>
+      <c r="A109" s="32"/>
+      <c r="B109" s="32"/>
       <c r="C109" s="18">
         <v>43903</v>
       </c>
@@ -3035,8 +3040,8 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="36"/>
-      <c r="B110" s="36"/>
+      <c r="A110" s="32"/>
+      <c r="B110" s="32"/>
       <c r="C110" s="18">
         <v>43905</v>
       </c>
@@ -3058,8 +3063,8 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="36"/>
-      <c r="B111" s="36"/>
+      <c r="A111" s="32"/>
+      <c r="B111" s="32"/>
       <c r="C111" s="18">
         <v>43907</v>
       </c>
@@ -3081,8 +3086,8 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="36"/>
-      <c r="B112" s="36"/>
+      <c r="A112" s="32"/>
+      <c r="B112" s="32"/>
       <c r="C112" s="18">
         <v>43909</v>
       </c>
@@ -3104,8 +3109,8 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="36"/>
-      <c r="B113" s="36"/>
+      <c r="A113" s="32"/>
+      <c r="B113" s="32"/>
       <c r="C113" s="18">
         <v>43912</v>
       </c>
@@ -3127,8 +3132,8 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="36"/>
-      <c r="B114" s="32"/>
+      <c r="A114" s="32"/>
+      <c r="B114" s="33"/>
       <c r="C114" s="18">
         <v>43915</v>
       </c>
@@ -3150,10 +3155,10 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="35">
+      <c r="A115" s="37">
         <v>9</v>
       </c>
-      <c r="B115" s="40" t="s">
+      <c r="B115" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C115" s="3">
@@ -3176,8 +3181,8 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="36"/>
-      <c r="B116" s="36"/>
+      <c r="A116" s="32"/>
+      <c r="B116" s="32"/>
       <c r="C116" s="3">
         <v>43890</v>
       </c>
@@ -3199,8 +3204,8 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="36"/>
-      <c r="B117" s="36"/>
+      <c r="A117" s="32"/>
+      <c r="B117" s="32"/>
       <c r="C117" s="3">
         <v>43892</v>
       </c>
@@ -3222,8 +3227,8 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="36"/>
-      <c r="B118" s="36"/>
+      <c r="A118" s="32"/>
+      <c r="B118" s="32"/>
       <c r="C118" s="3">
         <v>43893</v>
       </c>
@@ -3245,8 +3250,8 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="36"/>
-      <c r="B119" s="36"/>
+      <c r="A119" s="32"/>
+      <c r="B119" s="32"/>
       <c r="C119" s="3">
         <v>43895</v>
       </c>
@@ -3266,8 +3271,8 @@
       <c r="J119" s="8"/>
     </row>
     <row r="120" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="36"/>
-      <c r="B120" s="36"/>
+      <c r="A120" s="32"/>
+      <c r="B120" s="32"/>
       <c r="C120" s="3">
         <v>43897</v>
       </c>
@@ -3287,8 +3292,8 @@
       <c r="J120" s="8"/>
     </row>
     <row r="121" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="36"/>
-      <c r="B121" s="36"/>
+      <c r="A121" s="32"/>
+      <c r="B121" s="32"/>
       <c r="C121" s="3">
         <v>43899</v>
       </c>
@@ -3308,8 +3313,8 @@
       <c r="J121" s="8"/>
     </row>
     <row r="122" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="36"/>
-      <c r="B122" s="36"/>
+      <c r="A122" s="32"/>
+      <c r="B122" s="32"/>
       <c r="C122" s="3">
         <v>43901</v>
       </c>
@@ -3329,8 +3334,8 @@
       <c r="J122" s="8"/>
     </row>
     <row r="123" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="36"/>
-      <c r="B123" s="36"/>
+      <c r="A123" s="32"/>
+      <c r="B123" s="32"/>
       <c r="C123" s="3">
         <v>43903</v>
       </c>
@@ -3350,8 +3355,8 @@
       <c r="J123" s="12"/>
     </row>
     <row r="124" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="36"/>
-      <c r="B124" s="36"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="32"/>
       <c r="C124" s="3">
         <v>43905</v>
       </c>
@@ -3371,8 +3376,8 @@
       <c r="J124" s="12"/>
     </row>
     <row r="125" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="36"/>
-      <c r="B125" s="36"/>
+      <c r="A125" s="32"/>
+      <c r="B125" s="32"/>
       <c r="C125" s="3">
         <v>43907</v>
       </c>
@@ -3392,8 +3397,8 @@
       <c r="J125" s="12"/>
     </row>
     <row r="126" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="36"/>
-      <c r="B126" s="36"/>
+      <c r="A126" s="32"/>
+      <c r="B126" s="32"/>
       <c r="C126" s="3">
         <v>43909</v>
       </c>
@@ -3413,8 +3418,8 @@
       <c r="J126" s="12"/>
     </row>
     <row r="127" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="36"/>
-      <c r="B127" s="36"/>
+      <c r="A127" s="32"/>
+      <c r="B127" s="32"/>
       <c r="C127" s="3">
         <v>43912</v>
       </c>
@@ -3434,8 +3439,8 @@
       <c r="J127" s="12"/>
     </row>
     <row r="128" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="36"/>
-      <c r="B128" s="32"/>
+      <c r="A128" s="32"/>
+      <c r="B128" s="33"/>
       <c r="C128" s="3">
         <v>43915</v>
       </c>
@@ -3455,10 +3460,10 @@
       <c r="J128" s="12"/>
     </row>
     <row r="129" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="37">
+      <c r="A129" s="34">
         <v>10</v>
       </c>
-      <c r="B129" s="41" t="s">
+      <c r="B129" s="35" t="s">
         <v>26</v>
       </c>
       <c r="C129" s="18">
@@ -3481,8 +3486,8 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="36"/>
-      <c r="B130" s="36"/>
+      <c r="A130" s="32"/>
+      <c r="B130" s="32"/>
       <c r="C130" s="18">
         <v>43890</v>
       </c>
@@ -3504,8 +3509,8 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="36"/>
-      <c r="B131" s="36"/>
+      <c r="A131" s="32"/>
+      <c r="B131" s="32"/>
       <c r="C131" s="18">
         <v>43892</v>
       </c>
@@ -3527,8 +3532,8 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="36"/>
-      <c r="B132" s="36"/>
+      <c r="A132" s="32"/>
+      <c r="B132" s="32"/>
       <c r="C132" s="18">
         <v>43893</v>
       </c>
@@ -3550,8 +3555,8 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="36"/>
-      <c r="B133" s="36"/>
+      <c r="A133" s="32"/>
+      <c r="B133" s="32"/>
       <c r="C133" s="18">
         <v>43895</v>
       </c>
@@ -3571,8 +3576,8 @@
       <c r="J133" s="8"/>
     </row>
     <row r="134" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="36"/>
-      <c r="B134" s="36"/>
+      <c r="A134" s="32"/>
+      <c r="B134" s="32"/>
       <c r="C134" s="18">
         <v>43897</v>
       </c>
@@ -3592,8 +3597,8 @@
       <c r="J134" s="8"/>
     </row>
     <row r="135" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="36"/>
-      <c r="B135" s="36"/>
+      <c r="A135" s="32"/>
+      <c r="B135" s="32"/>
       <c r="C135" s="18">
         <v>43899</v>
       </c>
@@ -3613,8 +3618,8 @@
       <c r="J135" s="12"/>
     </row>
     <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="36"/>
-      <c r="B136" s="36"/>
+      <c r="A136" s="32"/>
+      <c r="B136" s="32"/>
       <c r="C136" s="18">
         <v>43901</v>
       </c>
@@ -3634,8 +3639,8 @@
       <c r="J136" s="12"/>
     </row>
     <row r="137" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="36"/>
-      <c r="B137" s="36"/>
+      <c r="A137" s="32"/>
+      <c r="B137" s="32"/>
       <c r="C137" s="18">
         <v>43903</v>
       </c>
@@ -3655,8 +3660,8 @@
       <c r="J137" s="12"/>
     </row>
     <row r="138" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="36"/>
-      <c r="B138" s="36"/>
+      <c r="A138" s="32"/>
+      <c r="B138" s="32"/>
       <c r="C138" s="18">
         <v>43905</v>
       </c>
@@ -3676,8 +3681,8 @@
       <c r="J138" s="12"/>
     </row>
     <row r="139" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="36"/>
-      <c r="B139" s="36"/>
+      <c r="A139" s="32"/>
+      <c r="B139" s="32"/>
       <c r="C139" s="18">
         <v>43907</v>
       </c>
@@ -3697,8 +3702,8 @@
       <c r="J139" s="12"/>
     </row>
     <row r="140" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="36"/>
-      <c r="B140" s="36"/>
+      <c r="A140" s="32"/>
+      <c r="B140" s="32"/>
       <c r="C140" s="18">
         <v>43909</v>
       </c>
@@ -3718,8 +3723,8 @@
       <c r="J140" s="12"/>
     </row>
     <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="36"/>
-      <c r="B141" s="36"/>
+      <c r="A141" s="32"/>
+      <c r="B141" s="32"/>
       <c r="C141" s="18">
         <v>43912</v>
       </c>
@@ -3739,8 +3744,8 @@
       <c r="J141" s="12"/>
     </row>
     <row r="142" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="36"/>
-      <c r="B142" s="32"/>
+      <c r="A142" s="32"/>
+      <c r="B142" s="33"/>
       <c r="C142" s="18">
         <v>43915</v>
       </c>
@@ -3760,10 +3765,10 @@
       <c r="J142" s="12"/>
     </row>
     <row r="143" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="35">
+      <c r="A143" s="37">
         <v>11</v>
       </c>
-      <c r="B143" s="40" t="s">
+      <c r="B143" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C143" s="3">
@@ -3786,8 +3791,8 @@
       </c>
     </row>
     <row r="144" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="36"/>
-      <c r="B144" s="36"/>
+      <c r="A144" s="32"/>
+      <c r="B144" s="32"/>
       <c r="C144" s="3">
         <v>43890</v>
       </c>
@@ -3807,8 +3812,8 @@
       <c r="J144" s="8"/>
     </row>
     <row r="145" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="36"/>
-      <c r="B145" s="36"/>
+      <c r="A145" s="32"/>
+      <c r="B145" s="32"/>
       <c r="C145" s="3">
         <v>43892</v>
       </c>
@@ -3828,8 +3833,8 @@
       <c r="J145" s="8"/>
     </row>
     <row r="146" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="36"/>
-      <c r="B146" s="36"/>
+      <c r="A146" s="32"/>
+      <c r="B146" s="32"/>
       <c r="C146" s="3">
         <v>43893</v>
       </c>
@@ -3849,8 +3854,8 @@
       <c r="J146" s="8"/>
     </row>
     <row r="147" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="36"/>
-      <c r="B147" s="36"/>
+      <c r="A147" s="32"/>
+      <c r="B147" s="32"/>
       <c r="C147" s="3">
         <v>43895</v>
       </c>
@@ -3870,8 +3875,8 @@
       <c r="J147" s="8"/>
     </row>
     <row r="148" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="36"/>
-      <c r="B148" s="36"/>
+      <c r="A148" s="32"/>
+      <c r="B148" s="32"/>
       <c r="C148" s="3">
         <v>43897</v>
       </c>
@@ -3891,8 +3896,8 @@
       <c r="J148" s="8"/>
     </row>
     <row r="149" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="36"/>
-      <c r="B149" s="36"/>
+      <c r="A149" s="32"/>
+      <c r="B149" s="32"/>
       <c r="C149" s="3">
         <v>43899</v>
       </c>
@@ -3912,8 +3917,8 @@
       <c r="J149" s="8"/>
     </row>
     <row r="150" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="36"/>
-      <c r="B150" s="36"/>
+      <c r="A150" s="32"/>
+      <c r="B150" s="32"/>
       <c r="C150" s="3">
         <v>43901</v>
       </c>
@@ -3933,8 +3938,8 @@
       <c r="J150" s="8"/>
     </row>
     <row r="151" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="36"/>
-      <c r="B151" s="36"/>
+      <c r="A151" s="32"/>
+      <c r="B151" s="32"/>
       <c r="C151" s="3">
         <v>43903</v>
       </c>
@@ -3954,8 +3959,8 @@
       <c r="J151" s="12"/>
     </row>
     <row r="152" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="36"/>
-      <c r="B152" s="36"/>
+      <c r="A152" s="32"/>
+      <c r="B152" s="32"/>
       <c r="C152" s="3">
         <v>43905</v>
       </c>
@@ -3975,8 +3980,8 @@
       <c r="J152" s="12"/>
     </row>
     <row r="153" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="36"/>
-      <c r="B153" s="36"/>
+      <c r="A153" s="32"/>
+      <c r="B153" s="32"/>
       <c r="C153" s="3">
         <v>43907</v>
       </c>
@@ -3996,8 +4001,8 @@
       <c r="J153" s="12"/>
     </row>
     <row r="154" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="36"/>
-      <c r="B154" s="36"/>
+      <c r="A154" s="32"/>
+      <c r="B154" s="32"/>
       <c r="C154" s="3">
         <v>43909</v>
       </c>
@@ -4017,8 +4022,8 @@
       <c r="J154" s="12"/>
     </row>
     <row r="155" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="36"/>
-      <c r="B155" s="36"/>
+      <c r="A155" s="32"/>
+      <c r="B155" s="32"/>
       <c r="C155" s="3">
         <v>43912</v>
       </c>
@@ -4038,8 +4043,8 @@
       <c r="J155" s="12"/>
     </row>
     <row r="156" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="36"/>
-      <c r="B156" s="32"/>
+      <c r="A156" s="32"/>
+      <c r="B156" s="33"/>
       <c r="C156" s="3">
         <v>43915</v>
       </c>
@@ -4059,10 +4064,10 @@
       <c r="J156" s="12"/>
     </row>
     <row r="157" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="37">
+      <c r="A157" s="34">
         <v>12</v>
       </c>
-      <c r="B157" s="41" t="s">
+      <c r="B157" s="35" t="s">
         <v>31</v>
       </c>
       <c r="C157" s="18">
@@ -4085,8 +4090,8 @@
       </c>
     </row>
     <row r="158" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="36"/>
-      <c r="B158" s="36"/>
+      <c r="A158" s="32"/>
+      <c r="B158" s="32"/>
       <c r="C158" s="18">
         <v>43890</v>
       </c>
@@ -4108,8 +4113,8 @@
       </c>
     </row>
     <row r="159" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="36"/>
-      <c r="B159" s="36"/>
+      <c r="A159" s="32"/>
+      <c r="B159" s="32"/>
       <c r="C159" s="18">
         <v>43892</v>
       </c>
@@ -4129,8 +4134,8 @@
       <c r="J159" s="8"/>
     </row>
     <row r="160" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="36"/>
-      <c r="B160" s="36"/>
+      <c r="A160" s="32"/>
+      <c r="B160" s="32"/>
       <c r="C160" s="18">
         <v>43893</v>
       </c>
@@ -4150,8 +4155,8 @@
       <c r="J160" s="8"/>
     </row>
     <row r="161" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="36"/>
-      <c r="B161" s="36"/>
+      <c r="A161" s="32"/>
+      <c r="B161" s="32"/>
       <c r="C161" s="18">
         <v>43895</v>
       </c>
@@ -4171,8 +4176,8 @@
       <c r="J161" s="8"/>
     </row>
     <row r="162" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="36"/>
-      <c r="B162" s="36"/>
+      <c r="A162" s="32"/>
+      <c r="B162" s="32"/>
       <c r="C162" s="18">
         <v>43897</v>
       </c>
@@ -4192,8 +4197,8 @@
       <c r="J162" s="8"/>
     </row>
     <row r="163" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="36"/>
-      <c r="B163" s="36"/>
+      <c r="A163" s="32"/>
+      <c r="B163" s="32"/>
       <c r="C163" s="18">
         <v>43899</v>
       </c>
@@ -4213,8 +4218,8 @@
       <c r="J163" s="12"/>
     </row>
     <row r="164" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="36"/>
-      <c r="B164" s="36"/>
+      <c r="A164" s="32"/>
+      <c r="B164" s="32"/>
       <c r="C164" s="18">
         <v>43901</v>
       </c>
@@ -4234,8 +4239,8 @@
       <c r="J164" s="12"/>
     </row>
     <row r="165" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="36"/>
-      <c r="B165" s="36"/>
+      <c r="A165" s="32"/>
+      <c r="B165" s="32"/>
       <c r="C165" s="18">
         <v>43903</v>
       </c>
@@ -4255,8 +4260,8 @@
       <c r="J165" s="12"/>
     </row>
     <row r="166" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="36"/>
-      <c r="B166" s="36"/>
+      <c r="A166" s="32"/>
+      <c r="B166" s="32"/>
       <c r="C166" s="18">
         <v>43905</v>
       </c>
@@ -4276,8 +4281,8 @@
       <c r="J166" s="12"/>
     </row>
     <row r="167" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="36"/>
-      <c r="B167" s="36"/>
+      <c r="A167" s="32"/>
+      <c r="B167" s="32"/>
       <c r="C167" s="18">
         <v>43907</v>
       </c>
@@ -4297,8 +4302,8 @@
       <c r="J167" s="12"/>
     </row>
     <row r="168" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="36"/>
-      <c r="B168" s="36"/>
+      <c r="A168" s="32"/>
+      <c r="B168" s="32"/>
       <c r="C168" s="18">
         <v>43909</v>
       </c>
@@ -4318,8 +4323,8 @@
       <c r="J168" s="12"/>
     </row>
     <row r="169" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="36"/>
-      <c r="B169" s="36"/>
+      <c r="A169" s="32"/>
+      <c r="B169" s="32"/>
       <c r="C169" s="18">
         <v>43912</v>
       </c>
@@ -4339,8 +4344,8 @@
       <c r="J169" s="12"/>
     </row>
     <row r="170" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="36"/>
-      <c r="B170" s="32"/>
+      <c r="A170" s="32"/>
+      <c r="B170" s="33"/>
       <c r="C170" s="18">
         <v>43915</v>
       </c>
@@ -4360,10 +4365,10 @@
       <c r="J170" s="12"/>
     </row>
     <row r="171" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="35">
+      <c r="A171" s="37">
         <v>13</v>
       </c>
-      <c r="B171" s="40" t="s">
+      <c r="B171" s="36" t="s">
         <v>32</v>
       </c>
       <c r="C171" s="3">
@@ -4386,8 +4391,8 @@
       </c>
     </row>
     <row r="172" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="36"/>
-      <c r="B172" s="36"/>
+      <c r="A172" s="32"/>
+      <c r="B172" s="32"/>
       <c r="C172" s="3">
         <v>43890</v>
       </c>
@@ -4409,8 +4414,8 @@
       </c>
     </row>
     <row r="173" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="36"/>
-      <c r="B173" s="36"/>
+      <c r="A173" s="32"/>
+      <c r="B173" s="32"/>
       <c r="C173" s="3">
         <v>43892</v>
       </c>
@@ -4432,8 +4437,8 @@
       </c>
     </row>
     <row r="174" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="36"/>
-      <c r="B174" s="36"/>
+      <c r="A174" s="32"/>
+      <c r="B174" s="32"/>
       <c r="C174" s="3">
         <v>43893</v>
       </c>
@@ -4453,8 +4458,8 @@
       <c r="J174" s="8"/>
     </row>
     <row r="175" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="36"/>
-      <c r="B175" s="36"/>
+      <c r="A175" s="32"/>
+      <c r="B175" s="32"/>
       <c r="C175" s="3">
         <v>43895</v>
       </c>
@@ -4474,8 +4479,8 @@
       <c r="J175" s="8"/>
     </row>
     <row r="176" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="36"/>
-      <c r="B176" s="36"/>
+      <c r="A176" s="32"/>
+      <c r="B176" s="32"/>
       <c r="C176" s="3">
         <v>43897</v>
       </c>
@@ -4495,8 +4500,8 @@
       <c r="J176" s="8"/>
     </row>
     <row r="177" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="36"/>
-      <c r="B177" s="36"/>
+      <c r="A177" s="32"/>
+      <c r="B177" s="32"/>
       <c r="C177" s="3">
         <v>43899</v>
       </c>
@@ -4516,8 +4521,8 @@
       <c r="J177" s="8"/>
     </row>
     <row r="178" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="36"/>
-      <c r="B178" s="36"/>
+      <c r="A178" s="32"/>
+      <c r="B178" s="32"/>
       <c r="C178" s="3">
         <v>43901</v>
       </c>
@@ -4537,8 +4542,8 @@
       <c r="J178" s="8"/>
     </row>
     <row r="179" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="36"/>
-      <c r="B179" s="36"/>
+      <c r="A179" s="32"/>
+      <c r="B179" s="32"/>
       <c r="C179" s="3">
         <v>43903</v>
       </c>
@@ -4558,8 +4563,8 @@
       <c r="J179" s="12"/>
     </row>
     <row r="180" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="36"/>
-      <c r="B180" s="36"/>
+      <c r="A180" s="32"/>
+      <c r="B180" s="32"/>
       <c r="C180" s="3">
         <v>43905</v>
       </c>
@@ -4579,8 +4584,8 @@
       <c r="J180" s="12"/>
     </row>
     <row r="181" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="36"/>
-      <c r="B181" s="36"/>
+      <c r="A181" s="32"/>
+      <c r="B181" s="32"/>
       <c r="C181" s="3">
         <v>43907</v>
       </c>
@@ -4600,8 +4605,8 @@
       <c r="J181" s="12"/>
     </row>
     <row r="182" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="36"/>
-      <c r="B182" s="36"/>
+      <c r="A182" s="32"/>
+      <c r="B182" s="32"/>
       <c r="C182" s="3">
         <v>43909</v>
       </c>
@@ -4621,8 +4626,8 @@
       <c r="J182" s="12"/>
     </row>
     <row r="183" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="36"/>
-      <c r="B183" s="36"/>
+      <c r="A183" s="32"/>
+      <c r="B183" s="32"/>
       <c r="C183" s="3">
         <v>43912</v>
       </c>
@@ -4642,8 +4647,8 @@
       <c r="J183" s="12"/>
     </row>
     <row r="184" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="32"/>
-      <c r="B184" s="32"/>
+      <c r="A184" s="33"/>
+      <c r="B184" s="33"/>
       <c r="C184" s="3">
         <v>43915</v>
       </c>
@@ -4663,10 +4668,10 @@
       <c r="J184" s="12"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="37">
+      <c r="A185" s="34">
         <v>14</v>
       </c>
-      <c r="B185" s="41" t="s">
+      <c r="B185" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C185" s="18">
@@ -4686,8 +4691,8 @@
       <c r="I185" s="7"/>
     </row>
     <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="36"/>
-      <c r="B186" s="36"/>
+      <c r="A186" s="32"/>
+      <c r="B186" s="32"/>
       <c r="C186" s="18">
         <v>43890</v>
       </c>
@@ -4706,8 +4711,8 @@
       <c r="I186" s="6"/>
     </row>
     <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="36"/>
-      <c r="B187" s="36"/>
+      <c r="A187" s="32"/>
+      <c r="B187" s="32"/>
       <c r="C187" s="18">
         <v>43892</v>
       </c>
@@ -4726,8 +4731,8 @@
       <c r="I187" s="6"/>
     </row>
     <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="36"/>
-      <c r="B188" s="36"/>
+      <c r="A188" s="32"/>
+      <c r="B188" s="32"/>
       <c r="C188" s="18">
         <v>43893</v>
       </c>
@@ -4746,8 +4751,8 @@
       <c r="I188" s="6"/>
     </row>
     <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="36"/>
-      <c r="B189" s="36"/>
+      <c r="A189" s="32"/>
+      <c r="B189" s="32"/>
       <c r="C189" s="18">
         <v>43895</v>
       </c>
@@ -4766,8 +4771,8 @@
       <c r="I189" s="6"/>
     </row>
     <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="36"/>
-      <c r="B190" s="36"/>
+      <c r="A190" s="32"/>
+      <c r="B190" s="32"/>
       <c r="C190" s="18">
         <v>43897</v>
       </c>
@@ -4786,8 +4791,8 @@
       <c r="I190" s="6"/>
     </row>
     <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="36"/>
-      <c r="B191" s="36"/>
+      <c r="A191" s="32"/>
+      <c r="B191" s="32"/>
       <c r="C191" s="18">
         <v>43899</v>
       </c>
@@ -4806,8 +4811,8 @@
       <c r="I191" s="6"/>
     </row>
     <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="36"/>
-      <c r="B192" s="36"/>
+      <c r="A192" s="32"/>
+      <c r="B192" s="32"/>
       <c r="C192" s="18">
         <v>43901</v>
       </c>
@@ -4826,8 +4831,8 @@
       <c r="I192" s="6"/>
     </row>
     <row r="193" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="36"/>
-      <c r="B193" s="36"/>
+      <c r="A193" s="32"/>
+      <c r="B193" s="32"/>
       <c r="C193" s="18">
         <v>43903</v>
       </c>
@@ -4846,8 +4851,8 @@
       <c r="I193" s="6"/>
     </row>
     <row r="194" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="36"/>
-      <c r="B194" s="36"/>
+      <c r="A194" s="32"/>
+      <c r="B194" s="32"/>
       <c r="C194" s="18">
         <v>43905</v>
       </c>
@@ -4866,8 +4871,8 @@
       <c r="I194" s="14"/>
     </row>
     <row r="195" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="36"/>
-      <c r="B195" s="36"/>
+      <c r="A195" s="32"/>
+      <c r="B195" s="32"/>
       <c r="C195" s="18">
         <v>43907</v>
       </c>
@@ -4886,8 +4891,8 @@
       <c r="I195" s="14"/>
     </row>
     <row r="196" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="36"/>
-      <c r="B196" s="36"/>
+      <c r="A196" s="32"/>
+      <c r="B196" s="32"/>
       <c r="C196" s="18">
         <v>43909</v>
       </c>
@@ -4906,8 +4911,8 @@
       <c r="I196" s="14"/>
     </row>
     <row r="197" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="36"/>
-      <c r="B197" s="36"/>
+      <c r="A197" s="32"/>
+      <c r="B197" s="32"/>
       <c r="C197" s="18">
         <v>43912</v>
       </c>
@@ -4926,8 +4931,8 @@
       <c r="I197" s="14"/>
     </row>
     <row r="198" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="36"/>
-      <c r="B198" s="32"/>
+      <c r="A198" s="32"/>
+      <c r="B198" s="33"/>
       <c r="C198" s="18">
         <v>43915</v>
       </c>
@@ -4946,10 +4951,10 @@
       <c r="I198" s="11"/>
     </row>
     <row r="199" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="42">
+      <c r="A199" s="31">
         <v>15</v>
       </c>
-      <c r="B199" s="40" t="s">
+      <c r="B199" s="36" t="s">
         <v>35</v>
       </c>
       <c r="C199" s="3">
@@ -4969,8 +4974,8 @@
       <c r="I199" s="7"/>
     </row>
     <row r="200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="36"/>
-      <c r="B200" s="36"/>
+      <c r="A200" s="32"/>
+      <c r="B200" s="32"/>
       <c r="C200" s="3">
         <v>43890</v>
       </c>
@@ -4989,8 +4994,8 @@
       <c r="I200" s="6"/>
     </row>
     <row r="201" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="36"/>
-      <c r="B201" s="36"/>
+      <c r="A201" s="32"/>
+      <c r="B201" s="32"/>
       <c r="C201" s="3">
         <v>43892</v>
       </c>
@@ -5009,8 +5014,8 @@
       <c r="I201" s="6"/>
     </row>
     <row r="202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="36"/>
-      <c r="B202" s="36"/>
+      <c r="A202" s="32"/>
+      <c r="B202" s="32"/>
       <c r="C202" s="3">
         <v>43893</v>
       </c>
@@ -5029,8 +5034,8 @@
       <c r="I202" s="6"/>
     </row>
     <row r="203" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="36"/>
-      <c r="B203" s="36"/>
+      <c r="A203" s="32"/>
+      <c r="B203" s="32"/>
       <c r="C203" s="3">
         <v>43895</v>
       </c>
@@ -5049,8 +5054,8 @@
       <c r="I203" s="6"/>
     </row>
     <row r="204" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="36"/>
-      <c r="B204" s="36"/>
+      <c r="A204" s="32"/>
+      <c r="B204" s="32"/>
       <c r="C204" s="3">
         <v>43897</v>
       </c>
@@ -5069,8 +5074,8 @@
       <c r="I204" s="6"/>
     </row>
     <row r="205" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="36"/>
-      <c r="B205" s="36"/>
+      <c r="A205" s="32"/>
+      <c r="B205" s="32"/>
       <c r="C205" s="3">
         <v>43899</v>
       </c>
@@ -5089,8 +5094,8 @@
       <c r="I205" s="6"/>
     </row>
     <row r="206" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="36"/>
-      <c r="B206" s="36"/>
+      <c r="A206" s="32"/>
+      <c r="B206" s="32"/>
       <c r="C206" s="3">
         <v>43901</v>
       </c>
@@ -5109,8 +5114,8 @@
       <c r="I206" s="6"/>
     </row>
     <row r="207" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="36"/>
-      <c r="B207" s="36"/>
+      <c r="A207" s="32"/>
+      <c r="B207" s="32"/>
       <c r="C207" s="3">
         <v>43903</v>
       </c>
@@ -5129,8 +5134,8 @@
       <c r="I207" s="11"/>
     </row>
     <row r="208" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="36"/>
-      <c r="B208" s="36"/>
+      <c r="A208" s="32"/>
+      <c r="B208" s="32"/>
       <c r="C208" s="3">
         <v>43905</v>
       </c>
@@ -5149,8 +5154,8 @@
       <c r="I208" s="14"/>
     </row>
     <row r="209" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="36"/>
-      <c r="B209" s="36"/>
+      <c r="A209" s="32"/>
+      <c r="B209" s="32"/>
       <c r="C209" s="3">
         <v>43907</v>
       </c>
@@ -5169,8 +5174,8 @@
       <c r="I209" s="14"/>
     </row>
     <row r="210" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="36"/>
-      <c r="B210" s="36"/>
+      <c r="A210" s="32"/>
+      <c r="B210" s="32"/>
       <c r="C210" s="3">
         <v>43909</v>
       </c>
@@ -5189,8 +5194,8 @@
       <c r="I210" s="14"/>
     </row>
     <row r="211" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="36"/>
-      <c r="B211" s="36"/>
+      <c r="A211" s="32"/>
+      <c r="B211" s="32"/>
       <c r="C211" s="3">
         <v>43912</v>
       </c>
@@ -5209,8 +5214,8 @@
       <c r="I211" s="14"/>
     </row>
     <row r="212" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="32"/>
-      <c r="B212" s="32"/>
+      <c r="A212" s="33"/>
+      <c r="B212" s="33"/>
       <c r="C212" s="3">
         <v>43915</v>
       </c>
@@ -5229,10 +5234,10 @@
       <c r="I212" s="14"/>
     </row>
     <row r="213" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="37">
+      <c r="A213" s="34">
         <v>16</v>
       </c>
-      <c r="B213" s="41" t="s">
+      <c r="B213" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C213" s="18">
@@ -5252,8 +5257,8 @@
       <c r="I213" s="7"/>
     </row>
     <row r="214" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="36"/>
-      <c r="B214" s="36"/>
+      <c r="A214" s="32"/>
+      <c r="B214" s="32"/>
       <c r="C214" s="18">
         <v>43890</v>
       </c>
@@ -5272,8 +5277,8 @@
       <c r="I214" s="6"/>
     </row>
     <row r="215" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="36"/>
-      <c r="B215" s="36"/>
+      <c r="A215" s="32"/>
+      <c r="B215" s="32"/>
       <c r="C215" s="18">
         <v>43892</v>
       </c>
@@ -5292,8 +5297,8 @@
       <c r="I215" s="6"/>
     </row>
     <row r="216" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="36"/>
-      <c r="B216" s="36"/>
+      <c r="A216" s="32"/>
+      <c r="B216" s="32"/>
       <c r="C216" s="18">
         <v>43893</v>
       </c>
@@ -5312,8 +5317,8 @@
       <c r="I216" s="6"/>
     </row>
     <row r="217" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="36"/>
-      <c r="B217" s="36"/>
+      <c r="A217" s="32"/>
+      <c r="B217" s="32"/>
       <c r="C217" s="18">
         <v>43895</v>
       </c>
@@ -5332,8 +5337,8 @@
       <c r="I217" s="6"/>
     </row>
     <row r="218" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="36"/>
-      <c r="B218" s="36"/>
+      <c r="A218" s="32"/>
+      <c r="B218" s="32"/>
       <c r="C218" s="18">
         <v>43897</v>
       </c>
@@ -5352,8 +5357,8 @@
       <c r="I218" s="6"/>
     </row>
     <row r="219" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="36"/>
-      <c r="B219" s="36"/>
+      <c r="A219" s="32"/>
+      <c r="B219" s="32"/>
       <c r="C219" s="18">
         <v>43899</v>
       </c>
@@ -5372,8 +5377,8 @@
       <c r="I219" s="6"/>
     </row>
     <row r="220" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="36"/>
-      <c r="B220" s="36"/>
+      <c r="A220" s="32"/>
+      <c r="B220" s="32"/>
       <c r="C220" s="18">
         <v>43901</v>
       </c>
@@ -5392,8 +5397,8 @@
       <c r="I220" s="6"/>
     </row>
     <row r="221" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="36"/>
-      <c r="B221" s="36"/>
+      <c r="A221" s="32"/>
+      <c r="B221" s="32"/>
       <c r="C221" s="18">
         <v>43903</v>
       </c>
@@ -5412,8 +5417,8 @@
       <c r="I221" s="6"/>
     </row>
     <row r="222" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="36"/>
-      <c r="B222" s="36"/>
+      <c r="A222" s="32"/>
+      <c r="B222" s="32"/>
       <c r="C222" s="18">
         <v>43905</v>
       </c>
@@ -5432,8 +5437,8 @@
       <c r="I222" s="14"/>
     </row>
     <row r="223" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="36"/>
-      <c r="B223" s="36"/>
+      <c r="A223" s="32"/>
+      <c r="B223" s="32"/>
       <c r="C223" s="18">
         <v>43907</v>
       </c>
@@ -5452,8 +5457,8 @@
       <c r="I223" s="14"/>
     </row>
     <row r="224" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="36"/>
-      <c r="B224" s="36"/>
+      <c r="A224" s="32"/>
+      <c r="B224" s="32"/>
       <c r="C224" s="18">
         <v>43909</v>
       </c>
@@ -5472,8 +5477,8 @@
       <c r="I224" s="14"/>
     </row>
     <row r="225" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="36"/>
-      <c r="B225" s="36"/>
+      <c r="A225" s="32"/>
+      <c r="B225" s="32"/>
       <c r="C225" s="18">
         <v>43912</v>
       </c>
@@ -5492,8 +5497,8 @@
       <c r="I225" s="14"/>
     </row>
     <row r="226" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="36"/>
-      <c r="B226" s="32"/>
+      <c r="A226" s="32"/>
+      <c r="B226" s="33"/>
       <c r="C226" s="18">
         <v>43915</v>
       </c>
@@ -5512,10 +5517,10 @@
       <c r="I226" s="11"/>
     </row>
     <row r="227" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="42">
+      <c r="A227" s="31">
         <v>17</v>
       </c>
-      <c r="B227" s="40" t="s">
+      <c r="B227" s="36" t="s">
         <v>37</v>
       </c>
       <c r="C227" s="3">
@@ -5535,8 +5540,8 @@
       <c r="I227" s="7"/>
     </row>
     <row r="228" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="36"/>
-      <c r="B228" s="36"/>
+      <c r="A228" s="32"/>
+      <c r="B228" s="32"/>
       <c r="C228" s="3">
         <v>43890</v>
       </c>
@@ -5555,8 +5560,8 @@
       <c r="I228" s="6"/>
     </row>
     <row r="229" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="36"/>
-      <c r="B229" s="36"/>
+      <c r="A229" s="32"/>
+      <c r="B229" s="32"/>
       <c r="C229" s="3">
         <v>43892</v>
       </c>
@@ -5575,8 +5580,8 @@
       <c r="I229" s="6"/>
     </row>
     <row r="230" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="36"/>
-      <c r="B230" s="36"/>
+      <c r="A230" s="32"/>
+      <c r="B230" s="32"/>
       <c r="C230" s="3">
         <v>43893</v>
       </c>
@@ -5595,8 +5600,8 @@
       <c r="I230" s="6"/>
     </row>
     <row r="231" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="36"/>
-      <c r="B231" s="36"/>
+      <c r="A231" s="32"/>
+      <c r="B231" s="32"/>
       <c r="C231" s="3">
         <v>43895</v>
       </c>
@@ -5615,8 +5620,8 @@
       <c r="I231" s="6"/>
     </row>
     <row r="232" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="36"/>
-      <c r="B232" s="36"/>
+      <c r="A232" s="32"/>
+      <c r="B232" s="32"/>
       <c r="C232" s="3">
         <v>43897</v>
       </c>
@@ -5635,8 +5640,8 @@
       <c r="I232" s="6"/>
     </row>
     <row r="233" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="36"/>
-      <c r="B233" s="36"/>
+      <c r="A233" s="32"/>
+      <c r="B233" s="32"/>
       <c r="C233" s="3">
         <v>43899</v>
       </c>
@@ -5655,8 +5660,8 @@
       <c r="I233" s="6"/>
     </row>
     <row r="234" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="36"/>
-      <c r="B234" s="36"/>
+      <c r="A234" s="32"/>
+      <c r="B234" s="32"/>
       <c r="C234" s="3">
         <v>43901</v>
       </c>
@@ -5675,8 +5680,8 @@
       <c r="I234" s="6"/>
     </row>
     <row r="235" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="36"/>
-      <c r="B235" s="36"/>
+      <c r="A235" s="32"/>
+      <c r="B235" s="32"/>
       <c r="C235" s="3">
         <v>43903</v>
       </c>
@@ -5695,8 +5700,8 @@
       <c r="I235" s="11"/>
     </row>
     <row r="236" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="36"/>
-      <c r="B236" s="36"/>
+      <c r="A236" s="32"/>
+      <c r="B236" s="32"/>
       <c r="C236" s="3">
         <v>43905</v>
       </c>
@@ -5715,8 +5720,8 @@
       <c r="I236" s="14"/>
     </row>
     <row r="237" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="36"/>
-      <c r="B237" s="36"/>
+      <c r="A237" s="32"/>
+      <c r="B237" s="32"/>
       <c r="C237" s="3">
         <v>43907</v>
       </c>
@@ -5735,8 +5740,8 @@
       <c r="I237" s="14"/>
     </row>
     <row r="238" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="36"/>
-      <c r="B238" s="36"/>
+      <c r="A238" s="32"/>
+      <c r="B238" s="32"/>
       <c r="C238" s="3">
         <v>43909</v>
       </c>
@@ -5755,8 +5760,8 @@
       <c r="I238" s="14"/>
     </row>
     <row r="239" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="36"/>
-      <c r="B239" s="36"/>
+      <c r="A239" s="32"/>
+      <c r="B239" s="32"/>
       <c r="C239" s="3">
         <v>43912</v>
       </c>
@@ -5775,8 +5780,8 @@
       <c r="I239" s="14"/>
     </row>
     <row r="240" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="32"/>
-      <c r="B240" s="32"/>
+      <c r="A240" s="33"/>
+      <c r="B240" s="33"/>
       <c r="C240" s="3">
         <v>43915</v>
       </c>
@@ -5795,10 +5800,10 @@
       <c r="I240" s="14"/>
     </row>
     <row r="241" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="37">
+      <c r="A241" s="34">
         <v>18</v>
       </c>
-      <c r="B241" s="41" t="s">
+      <c r="B241" s="35" t="s">
         <v>38</v>
       </c>
       <c r="C241" s="18">
@@ -5818,8 +5823,8 @@
       <c r="I241" s="7"/>
     </row>
     <row r="242" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="36"/>
-      <c r="B242" s="36"/>
+      <c r="A242" s="32"/>
+      <c r="B242" s="32"/>
       <c r="C242" s="18">
         <v>43890</v>
       </c>
@@ -5838,8 +5843,8 @@
       <c r="I242" s="6"/>
     </row>
     <row r="243" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="36"/>
-      <c r="B243" s="36"/>
+      <c r="A243" s="32"/>
+      <c r="B243" s="32"/>
       <c r="C243" s="18">
         <v>43892</v>
       </c>
@@ -5858,8 +5863,8 @@
       <c r="I243" s="6"/>
     </row>
     <row r="244" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="36"/>
-      <c r="B244" s="36"/>
+      <c r="A244" s="32"/>
+      <c r="B244" s="32"/>
       <c r="C244" s="18">
         <v>43893</v>
       </c>
@@ -5878,8 +5883,8 @@
       <c r="I244" s="6"/>
     </row>
     <row r="245" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="36"/>
-      <c r="B245" s="36"/>
+      <c r="A245" s="32"/>
+      <c r="B245" s="32"/>
       <c r="C245" s="18">
         <v>43895</v>
       </c>
@@ -5898,8 +5903,8 @@
       <c r="I245" s="6"/>
     </row>
     <row r="246" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="36"/>
-      <c r="B246" s="36"/>
+      <c r="A246" s="32"/>
+      <c r="B246" s="32"/>
       <c r="C246" s="18">
         <v>43897</v>
       </c>
@@ -5918,8 +5923,8 @@
       <c r="I246" s="6"/>
     </row>
     <row r="247" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="36"/>
-      <c r="B247" s="36"/>
+      <c r="A247" s="32"/>
+      <c r="B247" s="32"/>
       <c r="C247" s="18">
         <v>43899</v>
       </c>
@@ -5938,8 +5943,8 @@
       <c r="I247" s="6"/>
     </row>
     <row r="248" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="36"/>
-      <c r="B248" s="36"/>
+      <c r="A248" s="32"/>
+      <c r="B248" s="32"/>
       <c r="C248" s="18">
         <v>43901</v>
       </c>
@@ -5958,8 +5963,8 @@
       <c r="I248" s="6"/>
     </row>
     <row r="249" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="36"/>
-      <c r="B249" s="36"/>
+      <c r="A249" s="32"/>
+      <c r="B249" s="32"/>
       <c r="C249" s="18">
         <v>43903</v>
       </c>
@@ -5978,8 +5983,8 @@
       <c r="I249" s="6"/>
     </row>
     <row r="250" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="36"/>
-      <c r="B250" s="36"/>
+      <c r="A250" s="32"/>
+      <c r="B250" s="32"/>
       <c r="C250" s="18">
         <v>43905</v>
       </c>
@@ -5998,8 +6003,8 @@
       <c r="I250" s="14"/>
     </row>
     <row r="251" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="36"/>
-      <c r="B251" s="36"/>
+      <c r="A251" s="32"/>
+      <c r="B251" s="32"/>
       <c r="C251" s="18">
         <v>43907</v>
       </c>
@@ -6018,8 +6023,8 @@
       <c r="I251" s="14"/>
     </row>
     <row r="252" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="36"/>
-      <c r="B252" s="36"/>
+      <c r="A252" s="32"/>
+      <c r="B252" s="32"/>
       <c r="C252" s="18">
         <v>43909</v>
       </c>
@@ -6038,8 +6043,8 @@
       <c r="I252" s="14"/>
     </row>
     <row r="253" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="36"/>
-      <c r="B253" s="36"/>
+      <c r="A253" s="32"/>
+      <c r="B253" s="32"/>
       <c r="C253" s="18">
         <v>43912</v>
       </c>
@@ -6058,8 +6063,8 @@
       <c r="I253" s="14"/>
     </row>
     <row r="254" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="36"/>
-      <c r="B254" s="32"/>
+      <c r="A254" s="32"/>
+      <c r="B254" s="33"/>
       <c r="C254" s="18">
         <v>43915</v>
       </c>
@@ -6078,10 +6083,10 @@
       <c r="I254" s="11"/>
     </row>
     <row r="255" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="42">
+      <c r="A255" s="31">
         <v>19</v>
       </c>
-      <c r="B255" s="40" t="s">
+      <c r="B255" s="36" t="s">
         <v>39</v>
       </c>
       <c r="C255" s="3">
@@ -6101,8 +6106,8 @@
       <c r="I255" s="7"/>
     </row>
     <row r="256" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="36"/>
-      <c r="B256" s="36"/>
+      <c r="A256" s="32"/>
+      <c r="B256" s="32"/>
       <c r="C256" s="3">
         <v>43890</v>
       </c>
@@ -6121,8 +6126,8 @@
       <c r="I256" s="6"/>
     </row>
     <row r="257" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="36"/>
-      <c r="B257" s="36"/>
+      <c r="A257" s="32"/>
+      <c r="B257" s="32"/>
       <c r="C257" s="3">
         <v>43892</v>
       </c>
@@ -6141,8 +6146,8 @@
       <c r="I257" s="6"/>
     </row>
     <row r="258" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="36"/>
-      <c r="B258" s="36"/>
+      <c r="A258" s="32"/>
+      <c r="B258" s="32"/>
       <c r="C258" s="3">
         <v>43893</v>
       </c>
@@ -6161,8 +6166,8 @@
       <c r="I258" s="6"/>
     </row>
     <row r="259" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="36"/>
-      <c r="B259" s="36"/>
+      <c r="A259" s="32"/>
+      <c r="B259" s="32"/>
       <c r="C259" s="3">
         <v>43895</v>
       </c>
@@ -6181,8 +6186,8 @@
       <c r="I259" s="6"/>
     </row>
     <row r="260" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="36"/>
-      <c r="B260" s="36"/>
+      <c r="A260" s="32"/>
+      <c r="B260" s="32"/>
       <c r="C260" s="3">
         <v>43897</v>
       </c>
@@ -6201,8 +6206,8 @@
       <c r="I260" s="6"/>
     </row>
     <row r="261" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="36"/>
-      <c r="B261" s="36"/>
+      <c r="A261" s="32"/>
+      <c r="B261" s="32"/>
       <c r="C261" s="3">
         <v>43899</v>
       </c>
@@ -6221,8 +6226,8 @@
       <c r="I261" s="6"/>
     </row>
     <row r="262" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="36"/>
-      <c r="B262" s="36"/>
+      <c r="A262" s="32"/>
+      <c r="B262" s="32"/>
       <c r="C262" s="3">
         <v>43901</v>
       </c>
@@ -6241,8 +6246,8 @@
       <c r="I262" s="6"/>
     </row>
     <row r="263" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="36"/>
-      <c r="B263" s="36"/>
+      <c r="A263" s="32"/>
+      <c r="B263" s="32"/>
       <c r="C263" s="3">
         <v>43903</v>
       </c>
@@ -6261,8 +6266,8 @@
       <c r="I263" s="11"/>
     </row>
     <row r="264" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="36"/>
-      <c r="B264" s="36"/>
+      <c r="A264" s="32"/>
+      <c r="B264" s="32"/>
       <c r="C264" s="3">
         <v>43905</v>
       </c>
@@ -6281,8 +6286,8 @@
       <c r="I264" s="14"/>
     </row>
     <row r="265" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="36"/>
-      <c r="B265" s="36"/>
+      <c r="A265" s="32"/>
+      <c r="B265" s="32"/>
       <c r="C265" s="3">
         <v>43907</v>
       </c>
@@ -6301,8 +6306,8 @@
       <c r="I265" s="14"/>
     </row>
     <row r="266" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="36"/>
-      <c r="B266" s="36"/>
+      <c r="A266" s="32"/>
+      <c r="B266" s="32"/>
       <c r="C266" s="3">
         <v>43909</v>
       </c>
@@ -6321,8 +6326,8 @@
       <c r="I266" s="14"/>
     </row>
     <row r="267" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="36"/>
-      <c r="B267" s="36"/>
+      <c r="A267" s="32"/>
+      <c r="B267" s="32"/>
       <c r="C267" s="3">
         <v>43912</v>
       </c>
@@ -6341,8 +6346,8 @@
       <c r="I267" s="14"/>
     </row>
     <row r="268" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="32"/>
-      <c r="B268" s="32"/>
+      <c r="A268" s="33"/>
+      <c r="B268" s="33"/>
       <c r="C268" s="3">
         <v>43915</v>
       </c>
@@ -6361,10 +6366,10 @@
       <c r="I268" s="14"/>
     </row>
     <row r="269" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="37">
+      <c r="A269" s="34">
         <v>20</v>
       </c>
-      <c r="B269" s="41" t="s">
+      <c r="B269" s="35" t="s">
         <v>40</v>
       </c>
       <c r="C269" s="18">
@@ -6384,8 +6389,8 @@
       <c r="I269" s="7"/>
     </row>
     <row r="270" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="36"/>
-      <c r="B270" s="36"/>
+      <c r="A270" s="32"/>
+      <c r="B270" s="32"/>
       <c r="C270" s="18">
         <v>43890</v>
       </c>
@@ -6404,8 +6409,8 @@
       <c r="I270" s="6"/>
     </row>
     <row r="271" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="36"/>
-      <c r="B271" s="36"/>
+      <c r="A271" s="32"/>
+      <c r="B271" s="32"/>
       <c r="C271" s="18">
         <v>43892</v>
       </c>
@@ -6424,8 +6429,8 @@
       <c r="I271" s="6"/>
     </row>
     <row r="272" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="36"/>
-      <c r="B272" s="36"/>
+      <c r="A272" s="32"/>
+      <c r="B272" s="32"/>
       <c r="C272" s="18">
         <v>43893</v>
       </c>
@@ -6444,8 +6449,8 @@
       <c r="I272" s="6"/>
     </row>
     <row r="273" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="36"/>
-      <c r="B273" s="36"/>
+      <c r="A273" s="32"/>
+      <c r="B273" s="32"/>
       <c r="C273" s="18">
         <v>43895</v>
       </c>
@@ -6464,8 +6469,8 @@
       <c r="I273" s="6"/>
     </row>
     <row r="274" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="36"/>
-      <c r="B274" s="36"/>
+      <c r="A274" s="32"/>
+      <c r="B274" s="32"/>
       <c r="C274" s="18">
         <v>43897</v>
       </c>
@@ -6484,8 +6489,8 @@
       <c r="I274" s="6"/>
     </row>
     <row r="275" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="36"/>
-      <c r="B275" s="36"/>
+      <c r="A275" s="32"/>
+      <c r="B275" s="32"/>
       <c r="C275" s="18">
         <v>43899</v>
       </c>
@@ -6504,8 +6509,8 @@
       <c r="I275" s="6"/>
     </row>
     <row r="276" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="36"/>
-      <c r="B276" s="36"/>
+      <c r="A276" s="32"/>
+      <c r="B276" s="32"/>
       <c r="C276" s="18">
         <v>43901</v>
       </c>
@@ -6524,8 +6529,8 @@
       <c r="I276" s="6"/>
     </row>
     <row r="277" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="36"/>
-      <c r="B277" s="36"/>
+      <c r="A277" s="32"/>
+      <c r="B277" s="32"/>
       <c r="C277" s="18">
         <v>43903</v>
       </c>
@@ -6544,8 +6549,8 @@
       <c r="I277" s="6"/>
     </row>
     <row r="278" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="36"/>
-      <c r="B278" s="36"/>
+      <c r="A278" s="32"/>
+      <c r="B278" s="32"/>
       <c r="C278" s="18">
         <v>43905</v>
       </c>
@@ -6564,8 +6569,8 @@
       <c r="I278" s="14"/>
     </row>
     <row r="279" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="36"/>
-      <c r="B279" s="36"/>
+      <c r="A279" s="32"/>
+      <c r="B279" s="32"/>
       <c r="C279" s="18">
         <v>43907</v>
       </c>
@@ -6584,8 +6589,8 @@
       <c r="I279" s="14"/>
     </row>
     <row r="280" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="36"/>
-      <c r="B280" s="36"/>
+      <c r="A280" s="32"/>
+      <c r="B280" s="32"/>
       <c r="C280" s="18">
         <v>43909</v>
       </c>
@@ -6604,8 +6609,8 @@
       <c r="I280" s="14"/>
     </row>
     <row r="281" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="36"/>
-      <c r="B281" s="36"/>
+      <c r="A281" s="32"/>
+      <c r="B281" s="32"/>
       <c r="C281" s="18">
         <v>43912</v>
       </c>
@@ -6624,8 +6629,8 @@
       <c r="I281" s="14"/>
     </row>
     <row r="282" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="36"/>
-      <c r="B282" s="32"/>
+      <c r="A282" s="32"/>
+      <c r="B282" s="33"/>
       <c r="C282" s="18">
         <v>43915</v>
       </c>
@@ -6644,10 +6649,10 @@
       <c r="I282" s="11"/>
     </row>
     <row r="283" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="42">
+      <c r="A283" s="31">
         <v>21</v>
       </c>
-      <c r="B283" s="42"/>
+      <c r="B283" s="31"/>
       <c r="C283" s="3">
         <v>43888</v>
       </c>
@@ -6665,8 +6670,8 @@
       <c r="I283" s="7"/>
     </row>
     <row r="284" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="36"/>
-      <c r="B284" s="36"/>
+      <c r="A284" s="32"/>
+      <c r="B284" s="32"/>
       <c r="C284" s="3">
         <v>43890</v>
       </c>
@@ -6685,8 +6690,8 @@
       <c r="I284" s="6"/>
     </row>
     <row r="285" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="36"/>
-      <c r="B285" s="36"/>
+      <c r="A285" s="32"/>
+      <c r="B285" s="32"/>
       <c r="C285" s="3">
         <v>43892</v>
       </c>
@@ -6705,8 +6710,8 @@
       <c r="I285" s="6"/>
     </row>
     <row r="286" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="36"/>
-      <c r="B286" s="36"/>
+      <c r="A286" s="32"/>
+      <c r="B286" s="32"/>
       <c r="C286" s="3">
         <v>43893</v>
       </c>
@@ -6725,8 +6730,8 @@
       <c r="I286" s="6"/>
     </row>
     <row r="287" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="36"/>
-      <c r="B287" s="36"/>
+      <c r="A287" s="32"/>
+      <c r="B287" s="32"/>
       <c r="C287" s="3">
         <v>43895</v>
       </c>
@@ -6745,8 +6750,8 @@
       <c r="I287" s="6"/>
     </row>
     <row r="288" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="36"/>
-      <c r="B288" s="36"/>
+      <c r="A288" s="32"/>
+      <c r="B288" s="32"/>
       <c r="C288" s="3">
         <v>43897</v>
       </c>
@@ -6765,8 +6770,8 @@
       <c r="I288" s="6"/>
     </row>
     <row r="289" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="36"/>
-      <c r="B289" s="36"/>
+      <c r="A289" s="32"/>
+      <c r="B289" s="32"/>
       <c r="C289" s="3">
         <v>43899</v>
       </c>
@@ -6785,8 +6790,8 @@
       <c r="I289" s="6"/>
     </row>
     <row r="290" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="36"/>
-      <c r="B290" s="36"/>
+      <c r="A290" s="32"/>
+      <c r="B290" s="32"/>
       <c r="C290" s="3">
         <v>43901</v>
       </c>
@@ -6805,8 +6810,8 @@
       <c r="I290" s="6"/>
     </row>
     <row r="291" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="36"/>
-      <c r="B291" s="36"/>
+      <c r="A291" s="32"/>
+      <c r="B291" s="32"/>
       <c r="C291" s="3">
         <v>43903</v>
       </c>
@@ -6825,8 +6830,8 @@
       <c r="I291" s="11"/>
     </row>
     <row r="292" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="36"/>
-      <c r="B292" s="36"/>
+      <c r="A292" s="32"/>
+      <c r="B292" s="32"/>
       <c r="C292" s="3">
         <v>43905</v>
       </c>
@@ -6845,8 +6850,8 @@
       <c r="I292" s="14"/>
     </row>
     <row r="293" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="36"/>
-      <c r="B293" s="36"/>
+      <c r="A293" s="32"/>
+      <c r="B293" s="32"/>
       <c r="C293" s="3">
         <v>43907</v>
       </c>
@@ -6865,8 +6870,8 @@
       <c r="I293" s="14"/>
     </row>
     <row r="294" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="36"/>
-      <c r="B294" s="36"/>
+      <c r="A294" s="32"/>
+      <c r="B294" s="32"/>
       <c r="C294" s="3">
         <v>43909</v>
       </c>
@@ -6885,8 +6890,8 @@
       <c r="I294" s="14"/>
     </row>
     <row r="295" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="36"/>
-      <c r="B295" s="36"/>
+      <c r="A295" s="32"/>
+      <c r="B295" s="32"/>
       <c r="C295" s="3">
         <v>43912</v>
       </c>
@@ -6905,8 +6910,8 @@
       <c r="I295" s="14"/>
     </row>
     <row r="296" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="32"/>
-      <c r="B296" s="32"/>
+      <c r="A296" s="33"/>
+      <c r="B296" s="33"/>
       <c r="C296" s="3">
         <v>43915</v>
       </c>
@@ -7512,23 +7517,28 @@
     <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A227:A240"/>
-    <mergeCell ref="A213:A226"/>
-    <mergeCell ref="B213:B226"/>
-    <mergeCell ref="B227:B240"/>
-    <mergeCell ref="A241:A254"/>
-    <mergeCell ref="B241:B254"/>
-    <mergeCell ref="A255:A268"/>
-    <mergeCell ref="A283:A296"/>
-    <mergeCell ref="A269:A282"/>
-    <mergeCell ref="B283:B296"/>
-    <mergeCell ref="B255:B268"/>
-    <mergeCell ref="B269:B282"/>
-    <mergeCell ref="B59:B72"/>
-    <mergeCell ref="B73:B86"/>
-    <mergeCell ref="B87:B100"/>
-    <mergeCell ref="B101:B114"/>
-    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="A31:A44"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="B31:B44"/>
+    <mergeCell ref="B45:B58"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="A73:A86"/>
+    <mergeCell ref="A101:A114"/>
     <mergeCell ref="A129:A142"/>
     <mergeCell ref="B157:B170"/>
     <mergeCell ref="B171:B184"/>
@@ -7541,28 +7551,23 @@
     <mergeCell ref="A157:A170"/>
     <mergeCell ref="A199:A212"/>
     <mergeCell ref="A185:A198"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="A87:A100"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="A73:A86"/>
-    <mergeCell ref="A101:A114"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="A31:A44"/>
-    <mergeCell ref="A17:A30"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="B31:B44"/>
-    <mergeCell ref="B45:B58"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B59:B72"/>
+    <mergeCell ref="B73:B86"/>
+    <mergeCell ref="B87:B100"/>
+    <mergeCell ref="B101:B114"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="A255:A268"/>
+    <mergeCell ref="A283:A296"/>
+    <mergeCell ref="A269:A282"/>
+    <mergeCell ref="B283:B296"/>
+    <mergeCell ref="B255:B268"/>
+    <mergeCell ref="B269:B282"/>
+    <mergeCell ref="A227:A240"/>
+    <mergeCell ref="A213:A226"/>
+    <mergeCell ref="B213:B226"/>
+    <mergeCell ref="B227:B240"/>
+    <mergeCell ref="A241:A254"/>
+    <mergeCell ref="B241:B254"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
